--- a/src/test/resources/net/enanomapper/parser/xlsx/modena/MODENA-EC50_EC25.xlsx
+++ b/src/test/resources/net/enanomapper/parser/xlsx/modena/MODENA-EC50_EC25.xlsx
@@ -2714,7 +2714,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3814" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3820" uniqueCount="667">
   <si>
     <t>Coating</t>
   </si>
@@ -4450,9 +4450,6 @@
     <t>[Ni]</t>
   </si>
   <si>
-    <t>PEG</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Tween dispersion</t>
   </si>
   <si>
@@ -4606,9 +4603,6 @@
     <t>HAS_ADDITIVE</t>
   </si>
   <si>
-    <t>POE</t>
-  </si>
-  <si>
     <t>7732-18-5</t>
   </si>
   <si>
@@ -4709,6 +4703,18 @@
   </si>
   <si>
     <t>ZnO NM-110_nm_0.1_Tip</t>
+  </si>
+  <si>
+    <t>7440-21-3</t>
+  </si>
+  <si>
+    <t>PEG,POE</t>
+  </si>
+  <si>
+    <t>APTES</t>
+  </si>
+  <si>
+    <t>6132-04-3</t>
   </si>
 </sst>
 </file>
@@ -4721,7 +4727,7 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4838,6 +4844,14 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -5017,14 +5031,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5205,8 +5220,10 @@
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="XLConnect.Numeric" xfId="2"/>
@@ -13667,10 +13684,10 @@
   <dimension ref="A1:AY193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AM2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T2" sqref="A1:AY193"/>
+      <selection pane="bottomRight" activeCell="AP116" sqref="AP116:AP120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13715,7 +13732,7 @@
         <v>154</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
@@ -13817,7 +13834,7 @@
         <v>496</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="AK1" s="3" t="s">
         <v>517</v>
@@ -13829,37 +13846,37 @@
         <v>523</v>
       </c>
       <c r="AN1" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="AO1" s="1" t="s">
-        <v>590</v>
-      </c>
       <c r="AP1" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AQ1" s="68" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AR1" s="72" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="AU1" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="AV1" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>637</v>
-      </c>
       <c r="AX1" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -13972,7 +13989,7 @@
         <v>497</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK2" s="65" t="s">
         <v>511</v>
@@ -13987,24 +14004,21 @@
         <v>572</v>
       </c>
       <c r="AO2" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="AP2" s="45" t="s">
-        <v>630</v>
-      </c>
-      <c r="AQ2" s="45"/>
+        <v>593</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="AQ2" s="69" t="s">
+        <v>590</v>
+      </c>
       <c r="AR2" s="45"/>
-      <c r="AS2" s="5" t="s">
+      <c r="AS2" s="5"/>
+      <c r="AW2" s="45" t="s">
         <v>578</v>
       </c>
-      <c r="AT2" s="45" t="s">
-        <v>591</v>
-      </c>
-      <c r="AW2" s="45" t="s">
-        <v>579</v>
-      </c>
       <c r="AX2" s="45" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="3" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -14117,7 +14131,7 @@
         <v>497</v>
       </c>
       <c r="AJ3" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK3" s="65" t="s">
         <v>511</v>
@@ -14132,24 +14146,21 @@
         <v>572</v>
       </c>
       <c r="AO3" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="AP3" s="45" t="s">
-        <v>630</v>
-      </c>
-      <c r="AQ3" s="45"/>
+        <v>593</v>
+      </c>
+      <c r="AP3" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="AQ3" s="69" t="s">
+        <v>590</v>
+      </c>
       <c r="AR3" s="45"/>
-      <c r="AS3" s="5" t="s">
+      <c r="AS3" s="5"/>
+      <c r="AW3" s="45" t="s">
         <v>578</v>
       </c>
-      <c r="AT3" s="45" t="s">
-        <v>591</v>
-      </c>
-      <c r="AW3" s="45" t="s">
-        <v>579</v>
-      </c>
       <c r="AX3" s="45" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="4" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -14262,7 +14273,7 @@
         <v>497</v>
       </c>
       <c r="AJ4" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK4" s="65" t="s">
         <v>511</v>
@@ -14277,24 +14288,21 @@
         <v>572</v>
       </c>
       <c r="AO4" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="AP4" s="45" t="s">
-        <v>630</v>
-      </c>
-      <c r="AQ4" s="45"/>
+        <v>593</v>
+      </c>
+      <c r="AP4" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="AQ4" s="69" t="s">
+        <v>590</v>
+      </c>
       <c r="AR4" s="45"/>
-      <c r="AS4" s="5" t="s">
+      <c r="AS4" s="5"/>
+      <c r="AW4" s="45" t="s">
         <v>578</v>
       </c>
-      <c r="AT4" s="45" t="s">
-        <v>591</v>
-      </c>
-      <c r="AW4" s="45" t="s">
-        <v>579</v>
-      </c>
       <c r="AX4" s="45" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="5" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -14407,7 +14415,7 @@
         <v>497</v>
       </c>
       <c r="AJ5" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK5" s="65" t="s">
         <v>511</v>
@@ -14422,24 +14430,21 @@
         <v>572</v>
       </c>
       <c r="AO5" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="AP5" s="45" t="s">
-        <v>630</v>
-      </c>
-      <c r="AQ5" s="45"/>
+        <v>593</v>
+      </c>
+      <c r="AP5" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="AQ5" s="69" t="s">
+        <v>590</v>
+      </c>
       <c r="AR5" s="45"/>
-      <c r="AS5" s="5" t="s">
+      <c r="AS5" s="5"/>
+      <c r="AW5" s="45" t="s">
         <v>578</v>
       </c>
-      <c r="AT5" s="45" t="s">
-        <v>591</v>
-      </c>
-      <c r="AW5" s="45" t="s">
-        <v>579</v>
-      </c>
       <c r="AX5" s="45" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="6" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -14552,7 +14557,7 @@
         <v>497</v>
       </c>
       <c r="AJ6" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK6" s="65" t="s">
         <v>511</v>
@@ -14567,24 +14572,21 @@
         <v>572</v>
       </c>
       <c r="AO6" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="AP6" s="45" t="s">
-        <v>630</v>
-      </c>
-      <c r="AQ6" s="45"/>
+        <v>593</v>
+      </c>
+      <c r="AP6" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="AQ6" s="69" t="s">
+        <v>590</v>
+      </c>
       <c r="AR6" s="45"/>
-      <c r="AS6" s="5" t="s">
+      <c r="AS6" s="5"/>
+      <c r="AW6" s="45" t="s">
         <v>578</v>
       </c>
-      <c r="AT6" s="45" t="s">
-        <v>591</v>
-      </c>
-      <c r="AW6" s="45" t="s">
-        <v>579</v>
-      </c>
       <c r="AX6" s="45" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="7" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -14697,7 +14699,7 @@
         <v>497</v>
       </c>
       <c r="AJ7" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK7" s="65" t="s">
         <v>511</v>
@@ -14712,27 +14714,24 @@
         <v>572</v>
       </c>
       <c r="AO7" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="AP7" s="45" t="s">
-        <v>630</v>
-      </c>
-      <c r="AQ7" s="45"/>
+        <v>593</v>
+      </c>
+      <c r="AP7" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="AQ7" s="69" t="s">
+        <v>590</v>
+      </c>
       <c r="AR7" s="45"/>
-      <c r="AS7" s="5" t="s">
+      <c r="AS7" s="5"/>
+      <c r="AW7" s="45" t="s">
         <v>578</v>
       </c>
-      <c r="AT7" s="45" t="s">
-        <v>591</v>
-      </c>
-      <c r="AW7" s="45" t="s">
-        <v>579</v>
-      </c>
       <c r="AX7" s="45" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
-    <row r="8" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>155</v>
       </c>
@@ -14847,14 +14846,17 @@
         <v>572</v>
       </c>
       <c r="AO8" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AP8" s="5" t="s">
         <v>82</v>
       </c>
+      <c r="AQ8" s="75" t="s">
+        <v>666</v>
+      </c>
       <c r="AU8" s="5"/>
     </row>
-    <row r="9" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>157</v>
       </c>
@@ -14973,14 +14975,17 @@
         <v>572</v>
       </c>
       <c r="AO9" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AP9" s="5" t="s">
         <v>82</v>
       </c>
+      <c r="AQ9" s="75" t="s">
+        <v>666</v>
+      </c>
       <c r="AU9" s="5"/>
     </row>
-    <row r="10" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>156</v>
       </c>
@@ -15095,14 +15100,17 @@
         <v>572</v>
       </c>
       <c r="AO10" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AP10" s="5" t="s">
         <v>82</v>
       </c>
+      <c r="AQ10" s="75" t="s">
+        <v>666</v>
+      </c>
       <c r="AU10" s="5"/>
     </row>
-    <row r="11" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>158</v>
       </c>
@@ -15221,10 +15229,13 @@
         <v>572</v>
       </c>
       <c r="AO11" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AP11" s="5" t="s">
         <v>82</v>
+      </c>
+      <c r="AQ11" s="75" t="s">
+        <v>666</v>
       </c>
       <c r="AU11" s="5"/>
     </row>
@@ -15345,9 +15356,12 @@
         <v>572</v>
       </c>
       <c r="AO12" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AP12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ12" s="70" t="s">
         <v>78</v>
       </c>
       <c r="AU12" s="5"/>
@@ -15469,11 +15483,10 @@
         <v>572</v>
       </c>
       <c r="AO13" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="AP13" s="5" t="s">
-        <v>78</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="AP13" s="5"/>
+      <c r="AQ13" s="70"/>
       <c r="AU13" s="5"/>
     </row>
     <row r="14" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -15593,11 +15606,10 @@
         <v>572</v>
       </c>
       <c r="AO14" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="AP14" s="5" t="s">
-        <v>78</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="AP14" s="5"/>
+      <c r="AQ14" s="70"/>
       <c r="AU14" s="5"/>
     </row>
     <row r="15" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -15717,11 +15729,10 @@
         <v>572</v>
       </c>
       <c r="AO15" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="AP15" s="5" t="s">
-        <v>78</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="AP15" s="5"/>
+      <c r="AQ15" s="70"/>
       <c r="AU15" s="5"/>
     </row>
     <row r="16" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -15841,11 +15852,10 @@
         <v>572</v>
       </c>
       <c r="AO16" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="AP16" s="5" t="s">
-        <v>78</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="AP16" s="5"/>
+      <c r="AQ16" s="70"/>
       <c r="AU16" s="5"/>
     </row>
     <row r="17" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -15965,11 +15975,10 @@
         <v>572</v>
       </c>
       <c r="AO17" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="AP17" s="5" t="s">
-        <v>78</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="AP17" s="5"/>
+      <c r="AQ17" s="70"/>
       <c r="AU17" s="5"/>
     </row>
     <row r="18" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -16089,11 +16098,10 @@
         <v>572</v>
       </c>
       <c r="AO18" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="AP18" s="5" t="s">
-        <v>78</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="AP18" s="5"/>
+      <c r="AQ18" s="70"/>
       <c r="AU18" s="5"/>
     </row>
     <row r="19" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -16213,11 +16221,10 @@
         <v>572</v>
       </c>
       <c r="AO19" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="AP19" s="5" t="s">
-        <v>78</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="AP19" s="5"/>
+      <c r="AQ19" s="70"/>
       <c r="AU19" s="5"/>
     </row>
     <row r="20" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -16328,7 +16335,7 @@
         <v>497</v>
       </c>
       <c r="AJ20" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK20" s="65" t="s">
         <v>511</v>
@@ -16343,28 +16350,25 @@
         <v>572</v>
       </c>
       <c r="AO20" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="AP20" s="45" t="s">
+        <v>593</v>
+      </c>
+      <c r="AP20" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="AQ20" s="69" t="s">
+        <v>590</v>
+      </c>
+      <c r="AR20" s="45"/>
+      <c r="AS20" s="5"/>
+      <c r="AW20" s="45" t="s">
         <v>630</v>
       </c>
-      <c r="AQ20" s="45"/>
-      <c r="AR20" s="45"/>
-      <c r="AS20" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="AT20" s="45" t="s">
-        <v>591</v>
-      </c>
-      <c r="AW20" s="45" t="s">
-        <v>632</v>
-      </c>
       <c r="AX20" s="45" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AY20" s="73"/>
     </row>
-    <row r="21" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>174</v>
       </c>
@@ -16484,14 +16488,17 @@
         <v>572</v>
       </c>
       <c r="AO21" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AP21" s="5" t="s">
         <v>82</v>
       </c>
+      <c r="AQ21" s="75" t="s">
+        <v>666</v>
+      </c>
       <c r="AU21" s="5"/>
     </row>
-    <row r="22" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>175</v>
       </c>
@@ -16611,14 +16618,17 @@
         <v>572</v>
       </c>
       <c r="AO22" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AP22" s="5" t="s">
         <v>82</v>
       </c>
+      <c r="AQ22" s="75" t="s">
+        <v>666</v>
+      </c>
       <c r="AU22" s="5"/>
     </row>
-    <row r="23" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>176</v>
       </c>
@@ -16738,10 +16748,13 @@
         <v>572</v>
       </c>
       <c r="AO23" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AP23" s="5" t="s">
         <v>82</v>
+      </c>
+      <c r="AQ23" s="75" t="s">
+        <v>666</v>
       </c>
       <c r="AU23" s="5"/>
     </row>
@@ -16862,9 +16875,12 @@
         <v>573</v>
       </c>
       <c r="AO24" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AP24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ24" s="70" t="s">
         <v>78</v>
       </c>
       <c r="AU24" s="5"/>
@@ -16986,11 +17002,10 @@
         <v>573</v>
       </c>
       <c r="AO25" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="AP25" s="5" t="s">
-        <v>78</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="AP25" s="5"/>
+      <c r="AQ25" s="70"/>
       <c r="AU25" s="5"/>
     </row>
     <row r="26" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -17110,11 +17125,10 @@
         <v>573</v>
       </c>
       <c r="AO26" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="AP26" s="5" t="s">
-        <v>78</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="AP26" s="5"/>
+      <c r="AQ26" s="70"/>
       <c r="AU26" s="5"/>
     </row>
     <row r="27" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -17234,14 +17248,13 @@
         <v>573</v>
       </c>
       <c r="AO27" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="AP27" s="5" t="s">
-        <v>78</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="AP27" s="5"/>
+      <c r="AQ27" s="70"/>
       <c r="AU27" s="5"/>
     </row>
-    <row r="28" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:51" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>181</v>
       </c>
@@ -17361,14 +17374,17 @@
         <v>573</v>
       </c>
       <c r="AO28" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AP28" s="5" t="s">
         <v>82</v>
       </c>
+      <c r="AQ28" s="75" t="s">
+        <v>666</v>
+      </c>
       <c r="AU28" s="5"/>
     </row>
-    <row r="29" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:51" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>182</v>
       </c>
@@ -17488,10 +17504,13 @@
         <v>573</v>
       </c>
       <c r="AO29" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AP29" s="5" t="s">
         <v>82</v>
+      </c>
+      <c r="AQ29" s="75" t="s">
+        <v>666</v>
       </c>
       <c r="AU29" s="5"/>
     </row>
@@ -17599,7 +17618,7 @@
         <v>498</v>
       </c>
       <c r="AJ30" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK30" s="65" t="s">
         <v>512</v>
@@ -17614,17 +17633,17 @@
         <v>574</v>
       </c>
       <c r="AO30" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AU30" s="5"/>
       <c r="AW30" s="5" t="s">
         <v>21</v>
       </c>
       <c r="AX30" s="70" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AY30" s="73" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="31" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -17638,7 +17657,7 @@
         <v>20</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>11</v>
@@ -17727,13 +17746,13 @@
         <v>498</v>
       </c>
       <c r="AJ31" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK31" s="65" t="s">
         <v>512</v>
       </c>
       <c r="AL31" s="45" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AM31" s="5" t="s">
         <v>528</v>
@@ -17742,7 +17761,7 @@
         <v>574</v>
       </c>
       <c r="AO31" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AU31" s="5"/>
       <c r="AX31" s="69"/>
@@ -17852,7 +17871,7 @@
         <v>498</v>
       </c>
       <c r="AJ32" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK32" s="65" t="s">
         <v>512</v>
@@ -17867,17 +17886,17 @@
         <v>574</v>
       </c>
       <c r="AO32" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AU32" s="5"/>
       <c r="AW32" s="5" t="s">
         <v>21</v>
       </c>
       <c r="AX32" s="70" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AY32" s="73" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="33" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -17984,7 +18003,7 @@
         <v>498</v>
       </c>
       <c r="AJ33" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK33" s="65" t="s">
         <v>512</v>
@@ -17999,17 +18018,17 @@
         <v>574</v>
       </c>
       <c r="AO33" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AU33" s="5"/>
       <c r="AW33" s="5" t="s">
         <v>21</v>
       </c>
       <c r="AX33" s="70" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AY33" s="73" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="34" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -18116,7 +18135,7 @@
         <v>520</v>
       </c>
       <c r="AJ34" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK34" s="65" t="s">
         <v>512</v>
@@ -18131,17 +18150,17 @@
         <v>574</v>
       </c>
       <c r="AO34" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AU34" s="5"/>
       <c r="AW34" s="5" t="s">
         <v>21</v>
       </c>
       <c r="AX34" s="70" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AY34" s="73" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="35" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -18248,7 +18267,7 @@
         <v>520</v>
       </c>
       <c r="AJ35" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK35" s="65" t="s">
         <v>512</v>
@@ -18263,17 +18282,17 @@
         <v>574</v>
       </c>
       <c r="AO35" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AU35" s="5"/>
       <c r="AW35" s="5" t="s">
         <v>21</v>
       </c>
       <c r="AX35" s="70" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AY35" s="73" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="36" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -18380,7 +18399,7 @@
         <v>520</v>
       </c>
       <c r="AJ36" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK36" s="65" t="s">
         <v>512</v>
@@ -18395,17 +18414,17 @@
         <v>574</v>
       </c>
       <c r="AO36" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AU36" s="5"/>
       <c r="AW36" s="5" t="s">
         <v>21</v>
       </c>
       <c r="AX36" s="70" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AY36" s="73" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="37" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -18512,7 +18531,7 @@
         <v>521</v>
       </c>
       <c r="AJ37" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK37" s="65" t="s">
         <v>512</v>
@@ -18527,17 +18546,17 @@
         <v>574</v>
       </c>
       <c r="AO37" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AU37" s="5"/>
       <c r="AW37" s="5" t="s">
         <v>21</v>
       </c>
       <c r="AX37" s="70" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AY37" s="73" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="38" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -18551,7 +18570,7 @@
         <v>20</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>11</v>
@@ -18569,7 +18588,7 @@
         <v>109</v>
       </c>
       <c r="J38" s="14" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="K38" s="15" t="s">
         <v>126</v>
@@ -18640,13 +18659,13 @@
         <v>521</v>
       </c>
       <c r="AJ38" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK38" s="65" t="s">
         <v>512</v>
       </c>
       <c r="AL38" s="45" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="AM38" s="5" t="s">
         <v>528</v>
@@ -18655,7 +18674,7 @@
         <v>574</v>
       </c>
       <c r="AO38" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AU38" s="5"/>
       <c r="AX38" s="69"/>
@@ -18765,7 +18784,7 @@
         <v>521</v>
       </c>
       <c r="AJ39" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK39" s="65" t="s">
         <v>512</v>
@@ -18780,17 +18799,17 @@
         <v>574</v>
       </c>
       <c r="AO39" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AU39" s="5"/>
       <c r="AW39" s="5" t="s">
         <v>21</v>
       </c>
       <c r="AX39" s="70" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AY39" s="73" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="40" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -18897,7 +18916,7 @@
         <v>521</v>
       </c>
       <c r="AJ40" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK40" s="65" t="s">
         <v>512</v>
@@ -18912,17 +18931,17 @@
         <v>574</v>
       </c>
       <c r="AO40" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AU40" s="5"/>
       <c r="AW40" s="5" t="s">
         <v>21</v>
       </c>
       <c r="AX40" s="70" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AY40" s="73" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="41" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19034,22 +19053,22 @@
         <v>499</v>
       </c>
       <c r="AJ41" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK41" s="65" t="s">
         <v>513</v>
       </c>
       <c r="AL41" s="45" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AM41" s="5" t="s">
         <v>528</v>
       </c>
       <c r="AN41" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AO41" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AU41" s="5"/>
     </row>
@@ -19162,22 +19181,22 @@
         <v>499</v>
       </c>
       <c r="AJ42" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK42" s="65" t="s">
         <v>513</v>
       </c>
       <c r="AL42" s="45" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AM42" s="5" t="s">
         <v>528</v>
       </c>
       <c r="AN42" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AO42" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AU42" s="5"/>
     </row>
@@ -19290,22 +19309,22 @@
         <v>518</v>
       </c>
       <c r="AJ43" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK43" s="65" t="s">
         <v>513</v>
       </c>
       <c r="AL43" s="45" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AM43" s="5" t="s">
         <v>528</v>
       </c>
       <c r="AN43" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AO43" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AU43" s="5"/>
     </row>
@@ -19418,22 +19437,22 @@
         <v>518</v>
       </c>
       <c r="AJ44" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK44" s="65" t="s">
         <v>513</v>
       </c>
       <c r="AL44" s="45" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AM44" s="5" t="s">
         <v>528</v>
       </c>
       <c r="AN44" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AO44" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AU44" s="5"/>
     </row>
@@ -19546,22 +19565,22 @@
         <v>519</v>
       </c>
       <c r="AJ45" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK45" s="65" t="s">
         <v>513</v>
       </c>
       <c r="AL45" s="45" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AM45" s="5" t="s">
         <v>528</v>
       </c>
       <c r="AN45" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AO45" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AU45" s="5"/>
     </row>
@@ -19674,22 +19693,22 @@
         <v>519</v>
       </c>
       <c r="AJ46" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK46" s="65" t="s">
         <v>513</v>
       </c>
       <c r="AL46" s="45" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AM46" s="5" t="s">
         <v>528</v>
       </c>
       <c r="AN46" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AO46" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AU46" s="5"/>
     </row>
@@ -19813,25 +19832,25 @@
         <v>575</v>
       </c>
       <c r="AO47" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AP47" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AQ47" s="69" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AR47" s="73">
         <v>1</v>
       </c>
       <c r="AW47" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AX47" s="69" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AY47" s="73" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="48" spans="1:51" ht="15" x14ac:dyDescent="0.25">
@@ -19954,25 +19973,25 @@
         <v>575</v>
       </c>
       <c r="AO48" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AP48" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AQ48" s="69" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AR48" s="73">
         <v>1</v>
       </c>
       <c r="AW48" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AX48" s="69" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AY48" s="73" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="49" spans="1:51" ht="15" x14ac:dyDescent="0.25">
@@ -20095,25 +20114,25 @@
         <v>575</v>
       </c>
       <c r="AO49" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AP49" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AQ49" s="69" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AR49" s="73">
         <v>1</v>
       </c>
       <c r="AW49" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AX49" s="69" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AY49" s="73" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="50" spans="1:51" ht="15" x14ac:dyDescent="0.25">
@@ -20236,25 +20255,25 @@
         <v>575</v>
       </c>
       <c r="AO50" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AP50" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AQ50" s="69" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AR50" s="73">
         <v>1</v>
       </c>
       <c r="AW50" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AX50" s="69" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AY50" s="73" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="51" spans="1:51" ht="15" x14ac:dyDescent="0.25">
@@ -20377,25 +20396,25 @@
         <v>575</v>
       </c>
       <c r="AO51" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AP51" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AQ51" s="69" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AR51" s="73">
         <v>1</v>
       </c>
       <c r="AW51" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AX51" s="69" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AY51" s="73" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="52" spans="1:51" ht="15" x14ac:dyDescent="0.25">
@@ -20518,25 +20537,25 @@
         <v>575</v>
       </c>
       <c r="AO52" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AP52" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AQ52" s="69" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AR52" s="73">
         <v>1</v>
       </c>
       <c r="AW52" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AX52" s="69" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AY52" s="73" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="53" spans="1:51" ht="15" x14ac:dyDescent="0.25">
@@ -20659,25 +20678,25 @@
         <v>575</v>
       </c>
       <c r="AO53" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AP53" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AQ53" s="69" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AR53" s="73">
         <v>1</v>
       </c>
       <c r="AW53" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AX53" s="69" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AY53" s="73" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="54" spans="1:51" ht="15" x14ac:dyDescent="0.25">
@@ -20800,25 +20819,25 @@
         <v>575</v>
       </c>
       <c r="AO54" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AP54" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AQ54" s="69" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AR54" s="73">
         <v>1</v>
       </c>
       <c r="AW54" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AX54" s="69" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AY54" s="73" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="55" spans="1:51" ht="15" x14ac:dyDescent="0.25">
@@ -20941,25 +20960,25 @@
         <v>575</v>
       </c>
       <c r="AO55" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AP55" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AQ55" s="69" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AR55" s="73">
         <v>1</v>
       </c>
       <c r="AW55" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AX55" s="69" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AY55" s="73" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="56" spans="1:51" ht="15" x14ac:dyDescent="0.25">
@@ -21082,25 +21101,25 @@
         <v>575</v>
       </c>
       <c r="AO56" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AP56" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AQ56" s="69" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AR56" s="73">
         <v>1</v>
       </c>
       <c r="AW56" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AX56" s="69" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AY56" s="73" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="57" spans="1:51" ht="15" x14ac:dyDescent="0.25">
@@ -21223,25 +21242,25 @@
         <v>575</v>
       </c>
       <c r="AO57" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AP57" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AQ57" s="69" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AR57" s="73">
         <v>1</v>
       </c>
       <c r="AW57" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AX57" s="69" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AY57" s="73" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="58" spans="1:51" ht="15" x14ac:dyDescent="0.25">
@@ -21364,25 +21383,25 @@
         <v>575</v>
       </c>
       <c r="AO58" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AP58" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AQ58" s="69" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AR58" s="73">
         <v>1</v>
       </c>
       <c r="AW58" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AX58" s="69" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AY58" s="73" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="59" spans="1:51" ht="15" x14ac:dyDescent="0.25">
@@ -21396,7 +21415,7 @@
         <v>94</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>96</v>
@@ -21473,7 +21492,7 @@
         <v>515</v>
       </c>
       <c r="AL59" s="45" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AM59" s="5" t="s">
         <v>526</v>
@@ -21482,7 +21501,7 @@
         <v>576</v>
       </c>
       <c r="AO59" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AU59" s="5"/>
     </row>
@@ -21497,7 +21516,7 @@
         <v>94</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>96</v>
@@ -21574,7 +21593,7 @@
         <v>515</v>
       </c>
       <c r="AL60" s="45" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AM60" s="5" t="s">
         <v>526</v>
@@ -21583,7 +21602,7 @@
         <v>576</v>
       </c>
       <c r="AO60" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AU60" s="5"/>
     </row>
@@ -21598,7 +21617,7 @@
         <v>94</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>96</v>
@@ -21675,7 +21694,7 @@
         <v>515</v>
       </c>
       <c r="AL61" s="45" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AM61" s="5" t="s">
         <v>526</v>
@@ -21684,7 +21703,7 @@
         <v>576</v>
       </c>
       <c r="AO61" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AU61" s="5"/>
     </row>
@@ -21699,7 +21718,7 @@
         <v>94</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>96</v>
@@ -21776,7 +21795,7 @@
         <v>515</v>
       </c>
       <c r="AL62" s="45" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AM62" s="5" t="s">
         <v>526</v>
@@ -21785,7 +21804,7 @@
         <v>576</v>
       </c>
       <c r="AO62" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AU62" s="5"/>
     </row>
@@ -21800,7 +21819,7 @@
         <v>94</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>96</v>
@@ -21877,7 +21896,7 @@
         <v>515</v>
       </c>
       <c r="AL63" s="45" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AM63" s="5" t="s">
         <v>526</v>
@@ -21886,7 +21905,7 @@
         <v>576</v>
       </c>
       <c r="AO63" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AU63" s="5"/>
     </row>
@@ -21901,7 +21920,7 @@
         <v>94</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>96</v>
@@ -21978,7 +21997,7 @@
         <v>515</v>
       </c>
       <c r="AL64" s="45" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AM64" s="5" t="s">
         <v>526</v>
@@ -21987,7 +22006,7 @@
         <v>576</v>
       </c>
       <c r="AO64" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AU64" s="5"/>
     </row>
@@ -22002,7 +22021,7 @@
         <v>94</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>96</v>
@@ -22079,7 +22098,7 @@
         <v>515</v>
       </c>
       <c r="AL65" s="45" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AM65" s="5" t="s">
         <v>526</v>
@@ -22088,7 +22107,7 @@
         <v>576</v>
       </c>
       <c r="AO65" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AU65" s="5"/>
     </row>
@@ -22103,7 +22122,7 @@
         <v>94</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>96</v>
@@ -22180,7 +22199,7 @@
         <v>515</v>
       </c>
       <c r="AL66" s="45" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AM66" s="5" t="s">
         <v>526</v>
@@ -22189,7 +22208,7 @@
         <v>576</v>
       </c>
       <c r="AO66" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AU66" s="5"/>
     </row>
@@ -22204,7 +22223,7 @@
         <v>94</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>96</v>
@@ -22281,7 +22300,7 @@
         <v>515</v>
       </c>
       <c r="AL67" s="45" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AM67" s="5" t="s">
         <v>526</v>
@@ -22290,7 +22309,7 @@
         <v>576</v>
       </c>
       <c r="AO67" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AU67" s="5"/>
     </row>
@@ -22305,7 +22324,7 @@
         <v>94</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>96</v>
@@ -22382,7 +22401,7 @@
         <v>515</v>
       </c>
       <c r="AL68" s="45" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AM68" s="5" t="s">
         <v>526</v>
@@ -22391,7 +22410,7 @@
         <v>576</v>
       </c>
       <c r="AO68" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AU68" s="5"/>
     </row>
@@ -22406,7 +22425,7 @@
         <v>94</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>96</v>
@@ -22483,7 +22502,7 @@
         <v>515</v>
       </c>
       <c r="AL69" s="45" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AM69" s="5" t="s">
         <v>526</v>
@@ -22492,7 +22511,7 @@
         <v>576</v>
       </c>
       <c r="AO69" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AU69" s="5"/>
     </row>
@@ -22507,7 +22526,7 @@
         <v>94</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>96</v>
@@ -22584,7 +22603,7 @@
         <v>515</v>
       </c>
       <c r="AL70" s="45" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AM70" s="5" t="s">
         <v>526</v>
@@ -22593,7 +22612,7 @@
         <v>576</v>
       </c>
       <c r="AO70" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AU70" s="5"/>
     </row>
@@ -22608,7 +22627,7 @@
         <v>103</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>96</v>
@@ -22701,16 +22720,16 @@
         <v>514</v>
       </c>
       <c r="AL71" s="45" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AM71" s="5" t="s">
         <v>526</v>
       </c>
       <c r="AN71" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AO71" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AU71" s="5"/>
     </row>
@@ -22725,7 +22744,7 @@
         <v>103</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>96</v>
@@ -22818,16 +22837,16 @@
         <v>514</v>
       </c>
       <c r="AL72" s="45" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AM72" s="5" t="s">
         <v>526</v>
       </c>
       <c r="AN72" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AO72" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AU72" s="5"/>
     </row>
@@ -22842,7 +22861,7 @@
         <v>103</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>96</v>
@@ -22935,16 +22954,16 @@
         <v>514</v>
       </c>
       <c r="AL73" s="45" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AM73" s="5" t="s">
         <v>526</v>
       </c>
       <c r="AN73" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AO73" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AU73" s="5"/>
     </row>
@@ -22959,7 +22978,7 @@
         <v>103</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>96</v>
@@ -23052,16 +23071,16 @@
         <v>514</v>
       </c>
       <c r="AL74" s="45" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AM74" s="5" t="s">
         <v>526</v>
       </c>
       <c r="AN74" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AO74" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AU74" s="5"/>
     </row>
@@ -23076,7 +23095,7 @@
         <v>103</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>96</v>
@@ -23169,16 +23188,16 @@
         <v>514</v>
       </c>
       <c r="AL75" s="45" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AM75" s="5" t="s">
         <v>526</v>
       </c>
       <c r="AN75" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AO75" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AU75" s="5"/>
     </row>
@@ -23193,7 +23212,7 @@
         <v>103</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>96</v>
@@ -23286,16 +23305,16 @@
         <v>514</v>
       </c>
       <c r="AL76" s="45" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AM76" s="5" t="s">
         <v>526</v>
       </c>
       <c r="AN76" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AO76" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AU76" s="5"/>
     </row>
@@ -23310,7 +23329,7 @@
         <v>103</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>96</v>
@@ -23403,16 +23422,16 @@
         <v>514</v>
       </c>
       <c r="AL77" s="45" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AM77" s="5" t="s">
         <v>526</v>
       </c>
       <c r="AN77" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AO77" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AU77" s="5"/>
     </row>
@@ -23427,7 +23446,7 @@
         <v>103</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>96</v>
@@ -23520,16 +23539,16 @@
         <v>514</v>
       </c>
       <c r="AL78" s="45" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AM78" s="5" t="s">
         <v>526</v>
       </c>
       <c r="AN78" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AO78" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AU78" s="5"/>
     </row>
@@ -23544,7 +23563,7 @@
         <v>103</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>96</v>
@@ -23637,16 +23656,16 @@
         <v>514</v>
       </c>
       <c r="AL79" s="45" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AM79" s="5" t="s">
         <v>526</v>
       </c>
       <c r="AN79" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AO79" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AU79" s="5"/>
     </row>
@@ -23661,7 +23680,7 @@
         <v>103</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>96</v>
@@ -23754,16 +23773,16 @@
         <v>514</v>
       </c>
       <c r="AL80" s="45" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AM80" s="5" t="s">
         <v>526</v>
       </c>
       <c r="AN80" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AO80" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AU80" s="5"/>
     </row>
@@ -23778,7 +23797,7 @@
         <v>103</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>96</v>
@@ -23871,16 +23890,16 @@
         <v>514</v>
       </c>
       <c r="AL81" s="45" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AM81" s="5" t="s">
         <v>526</v>
       </c>
       <c r="AN81" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AO81" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AU81" s="5"/>
     </row>
@@ -23895,7 +23914,7 @@
         <v>103</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>96</v>
@@ -23988,16 +24007,16 @@
         <v>514</v>
       </c>
       <c r="AL82" s="45" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AM82" s="5" t="s">
         <v>526</v>
       </c>
       <c r="AN82" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AO82" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AU82" s="5"/>
     </row>
@@ -24105,19 +24124,22 @@
         <v>514</v>
       </c>
       <c r="AL83" s="45" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AM83" s="5" t="s">
         <v>526</v>
       </c>
       <c r="AN83" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AO83" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AP83" s="5" t="s">
-        <v>147</v>
+        <v>665</v>
+      </c>
+      <c r="AQ83" s="69" t="s">
+        <v>620</v>
       </c>
       <c r="AU83" s="5"/>
     </row>
@@ -24225,19 +24247,22 @@
         <v>514</v>
       </c>
       <c r="AL84" s="45" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AM84" s="5" t="s">
         <v>526</v>
       </c>
       <c r="AN84" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AO84" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AP84" s="5" t="s">
-        <v>148</v>
+        <v>665</v>
+      </c>
+      <c r="AQ84" s="69" t="s">
+        <v>620</v>
       </c>
       <c r="AU84" s="5"/>
     </row>
@@ -24345,19 +24370,22 @@
         <v>514</v>
       </c>
       <c r="AL85" s="45" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AM85" s="5" t="s">
         <v>526</v>
       </c>
       <c r="AN85" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AO85" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AP85" s="5" t="s">
-        <v>147</v>
+        <v>665</v>
+      </c>
+      <c r="AQ85" s="69" t="s">
+        <v>620</v>
       </c>
       <c r="AU85" s="5"/>
     </row>
@@ -24465,19 +24493,22 @@
         <v>514</v>
       </c>
       <c r="AL86" s="45" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AM86" s="5" t="s">
         <v>526</v>
       </c>
       <c r="AN86" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AO86" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AP86" s="5" t="s">
-        <v>148</v>
+        <v>665</v>
+      </c>
+      <c r="AQ86" s="69" t="s">
+        <v>620</v>
       </c>
       <c r="AU86" s="5"/>
     </row>
@@ -24597,16 +24628,16 @@
         <v>528</v>
       </c>
       <c r="AN87" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AO87" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AP87" s="45" t="s">
         <v>149</v>
       </c>
       <c r="AQ87" s="69" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AU87" s="5"/>
     </row>
@@ -24726,16 +24757,16 @@
         <v>528</v>
       </c>
       <c r="AN88" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AO88" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AP88" s="45" t="s">
         <v>149</v>
       </c>
       <c r="AQ88" s="69" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AU88" s="5"/>
     </row>
@@ -24750,7 +24781,7 @@
         <v>103</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>11</v>
@@ -24856,10 +24887,10 @@
         <v>528</v>
       </c>
       <c r="AN89" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AO89" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AU89" s="5"/>
     </row>
@@ -24874,7 +24905,7 @@
         <v>103</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>11</v>
@@ -24980,10 +25011,10 @@
         <v>528</v>
       </c>
       <c r="AN90" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AO90" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AU90" s="5"/>
     </row>
@@ -24998,7 +25029,7 @@
         <v>102</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>96</v>
@@ -25075,7 +25106,7 @@
         <v>515</v>
       </c>
       <c r="AL91" s="45" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AM91" s="5" t="s">
         <v>526</v>
@@ -25084,7 +25115,7 @@
         <v>577</v>
       </c>
       <c r="AO91" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AU91" s="5"/>
     </row>
@@ -25099,7 +25130,7 @@
         <v>102</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>96</v>
@@ -25176,7 +25207,7 @@
         <v>515</v>
       </c>
       <c r="AL92" s="45" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AM92" s="5" t="s">
         <v>526</v>
@@ -25185,7 +25216,7 @@
         <v>577</v>
       </c>
       <c r="AO92" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AU92" s="5"/>
     </row>
@@ -25200,7 +25231,7 @@
         <v>102</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>96</v>
@@ -25277,7 +25308,7 @@
         <v>515</v>
       </c>
       <c r="AL93" s="45" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AM93" s="5" t="s">
         <v>526</v>
@@ -25286,7 +25317,7 @@
         <v>577</v>
       </c>
       <c r="AO93" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AU93" s="5"/>
     </row>
@@ -25301,7 +25332,7 @@
         <v>102</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>96</v>
@@ -25378,7 +25409,7 @@
         <v>515</v>
       </c>
       <c r="AL94" s="45" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AM94" s="5" t="s">
         <v>526</v>
@@ -25387,7 +25418,7 @@
         <v>577</v>
       </c>
       <c r="AO94" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AU94" s="5"/>
     </row>
@@ -25402,7 +25433,7 @@
         <v>100</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>96</v>
@@ -25479,7 +25510,7 @@
         <v>515</v>
       </c>
       <c r="AL95" s="45" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AM95" s="5" t="s">
         <v>526</v>
@@ -25488,7 +25519,7 @@
         <v>577</v>
       </c>
       <c r="AO95" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AU95" s="5"/>
     </row>
@@ -25503,7 +25534,7 @@
         <v>100</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>96</v>
@@ -25580,7 +25611,7 @@
         <v>515</v>
       </c>
       <c r="AL96" s="45" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AM96" s="5" t="s">
         <v>526</v>
@@ -25589,7 +25620,7 @@
         <v>577</v>
       </c>
       <c r="AO96" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AU96" s="5"/>
     </row>
@@ -25604,7 +25635,7 @@
         <v>100</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>96</v>
@@ -25681,7 +25712,7 @@
         <v>515</v>
       </c>
       <c r="AL97" s="45" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AM97" s="5" t="s">
         <v>526</v>
@@ -25690,7 +25721,7 @@
         <v>577</v>
       </c>
       <c r="AO97" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AU97" s="5"/>
     </row>
@@ -25705,7 +25736,7 @@
         <v>100</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>96</v>
@@ -25782,7 +25813,7 @@
         <v>515</v>
       </c>
       <c r="AL98" s="45" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AM98" s="5" t="s">
         <v>526</v>
@@ -25791,7 +25822,7 @@
         <v>577</v>
       </c>
       <c r="AO98" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AU98" s="5"/>
     </row>
@@ -25806,7 +25837,7 @@
         <v>100</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>96</v>
@@ -25883,7 +25914,7 @@
         <v>515</v>
       </c>
       <c r="AL99" s="45" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AM99" s="5" t="s">
         <v>526</v>
@@ -25892,7 +25923,7 @@
         <v>577</v>
       </c>
       <c r="AO99" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AU99" s="5"/>
     </row>
@@ -25907,7 +25938,7 @@
         <v>100</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>96</v>
@@ -25984,7 +26015,7 @@
         <v>515</v>
       </c>
       <c r="AL100" s="45" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AM100" s="5" t="s">
         <v>526</v>
@@ -25993,7 +26024,7 @@
         <v>577</v>
       </c>
       <c r="AO100" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AU100" s="5"/>
     </row>
@@ -26008,7 +26039,7 @@
         <v>100</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>96</v>
@@ -26085,7 +26116,7 @@
         <v>515</v>
       </c>
       <c r="AL101" s="45" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AM101" s="5" t="s">
         <v>526</v>
@@ -26094,7 +26125,7 @@
         <v>577</v>
       </c>
       <c r="AO101" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AU101" s="5"/>
     </row>
@@ -26109,7 +26140,7 @@
         <v>100</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>96</v>
@@ -26186,7 +26217,7 @@
         <v>515</v>
       </c>
       <c r="AL102" s="45" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AM102" s="5" t="s">
         <v>526</v>
@@ -26195,7 +26226,7 @@
         <v>577</v>
       </c>
       <c r="AO102" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AU102" s="5"/>
     </row>
@@ -26210,7 +26241,7 @@
         <v>138</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>11</v>
@@ -26320,7 +26351,7 @@
         <v>138</v>
       </c>
       <c r="AO103" s="67" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AU103" s="5"/>
     </row>
@@ -26335,7 +26366,7 @@
         <v>138</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>11</v>
@@ -26445,7 +26476,7 @@
         <v>138</v>
       </c>
       <c r="AO104" s="67" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AU104" s="5"/>
     </row>
@@ -26460,7 +26491,7 @@
         <v>138</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>11</v>
@@ -26570,7 +26601,7 @@
         <v>138</v>
       </c>
       <c r="AO105" s="67" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AU105" s="5"/>
     </row>
@@ -26585,7 +26616,7 @@
         <v>138</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>11</v>
@@ -26695,7 +26726,7 @@
         <v>138</v>
       </c>
       <c r="AO106" s="67" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AU106" s="5"/>
     </row>
@@ -26710,7 +26741,7 @@
         <v>35</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>11</v>
@@ -26819,7 +26850,7 @@
       </c>
       <c r="AN107" s="5"/>
       <c r="AO107" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AU107" s="5"/>
     </row>
@@ -26834,7 +26865,7 @@
         <v>35</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>11</v>
@@ -26943,7 +26974,7 @@
       </c>
       <c r="AN108" s="5"/>
       <c r="AO108" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AU108" s="5"/>
     </row>
@@ -26958,7 +26989,7 @@
         <v>35</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>11</v>
@@ -27067,7 +27098,7 @@
       </c>
       <c r="AN109" s="5"/>
       <c r="AO109" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AU109" s="5"/>
     </row>
@@ -27082,7 +27113,7 @@
         <v>35</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>11</v>
@@ -27191,7 +27222,7 @@
       </c>
       <c r="AN110" s="5"/>
       <c r="AO110" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AU110" s="5"/>
     </row>
@@ -27206,7 +27237,7 @@
         <v>35</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>11</v>
@@ -27315,7 +27346,7 @@
       </c>
       <c r="AN111" s="5"/>
       <c r="AO111" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AU111" s="5"/>
     </row>
@@ -27330,7 +27361,7 @@
         <v>35</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>11</v>
@@ -27439,7 +27470,7 @@
       </c>
       <c r="AN112" s="5"/>
       <c r="AO112" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AU112" s="5"/>
     </row>
@@ -27454,7 +27485,7 @@
         <v>35</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E113" s="5" t="s">
         <v>11</v>
@@ -27563,7 +27594,7 @@
       </c>
       <c r="AN113" s="5"/>
       <c r="AO113" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AQ113" s="71"/>
       <c r="AR113" s="74"/>
@@ -27580,7 +27611,7 @@
         <v>35</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>11</v>
@@ -27689,7 +27720,7 @@
       </c>
       <c r="AN114" s="5"/>
       <c r="AO114" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AU114" s="5"/>
     </row>
@@ -27804,7 +27835,7 @@
         <v>500</v>
       </c>
       <c r="AJ115" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK115" s="66" t="s">
         <v>510</v>
@@ -27817,9 +27848,12 @@
       </c>
       <c r="AN115" s="5"/>
       <c r="AO115" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AP115" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ115" s="5" t="s">
         <v>39</v>
       </c>
       <c r="AU115" s="5"/>
@@ -27935,7 +27969,7 @@
         <v>500</v>
       </c>
       <c r="AJ116" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK116" s="66" t="s">
         <v>510</v>
@@ -27948,11 +27982,9 @@
       </c>
       <c r="AN116" s="5"/>
       <c r="AO116" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="AP116" s="5" t="s">
-        <v>39</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="AP116" s="5"/>
       <c r="AU116" s="5"/>
     </row>
     <row r="117" spans="1:47" ht="15" x14ac:dyDescent="0.25">
@@ -28066,7 +28098,7 @@
         <v>500</v>
       </c>
       <c r="AJ117" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK117" s="66" t="s">
         <v>510</v>
@@ -28079,11 +28111,9 @@
       </c>
       <c r="AN117" s="5"/>
       <c r="AO117" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="AP117" s="5" t="s">
-        <v>39</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="AP117" s="5"/>
       <c r="AU117" s="5"/>
     </row>
     <row r="118" spans="1:47" ht="15" x14ac:dyDescent="0.25">
@@ -28197,7 +28227,7 @@
         <v>500</v>
       </c>
       <c r="AJ118" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK118" s="66" t="s">
         <v>510</v>
@@ -28210,11 +28240,9 @@
       </c>
       <c r="AN118" s="5"/>
       <c r="AO118" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="AP118" s="5" t="s">
-        <v>39</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="AP118" s="5"/>
       <c r="AU118" s="5"/>
     </row>
     <row r="119" spans="1:47" ht="15" x14ac:dyDescent="0.25">
@@ -28328,7 +28356,7 @@
         <v>500</v>
       </c>
       <c r="AJ119" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK119" s="66" t="s">
         <v>510</v>
@@ -28341,11 +28369,9 @@
       </c>
       <c r="AN119" s="5"/>
       <c r="AO119" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="AP119" s="5" t="s">
-        <v>39</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="AP119" s="5"/>
       <c r="AU119" s="5"/>
     </row>
     <row r="120" spans="1:47" ht="15" x14ac:dyDescent="0.25">
@@ -28459,7 +28485,7 @@
         <v>500</v>
       </c>
       <c r="AJ120" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK120" s="66" t="s">
         <v>510</v>
@@ -28472,11 +28498,9 @@
       </c>
       <c r="AN120" s="5"/>
       <c r="AO120" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="AP120" s="5" t="s">
-        <v>39</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="AP120" s="5"/>
       <c r="AU120" s="5"/>
     </row>
     <row r="121" spans="1:47" ht="15" x14ac:dyDescent="0.25">
@@ -28588,20 +28612,20 @@
         <v>500</v>
       </c>
       <c r="AJ121" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK121" s="66" t="s">
         <v>510</v>
       </c>
       <c r="AL121" s="45" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AM121" s="5" t="s">
         <v>528</v>
       </c>
       <c r="AN121" s="5"/>
       <c r="AO121" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AU121" s="5"/>
     </row>
@@ -28716,7 +28740,7 @@
         <v>500</v>
       </c>
       <c r="AJ122" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK122" s="66" t="s">
         <v>510</v>
@@ -28729,7 +28753,7 @@
       </c>
       <c r="AN122" s="5"/>
       <c r="AO122" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AU122" s="5"/>
     </row>
@@ -28844,7 +28868,7 @@
         <v>500</v>
       </c>
       <c r="AJ123" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK123" s="66" t="s">
         <v>510</v>
@@ -28857,7 +28881,7 @@
       </c>
       <c r="AN123" s="5"/>
       <c r="AO123" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AU123" s="5"/>
     </row>
@@ -28972,7 +28996,7 @@
         <v>500</v>
       </c>
       <c r="AJ124" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK124" s="66" t="s">
         <v>510</v>
@@ -28985,7 +29009,7 @@
       </c>
       <c r="AN124" s="5"/>
       <c r="AO124" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AU124" s="5"/>
     </row>
@@ -29100,7 +29124,7 @@
         <v>500</v>
       </c>
       <c r="AJ125" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK125" s="66" t="s">
         <v>510</v>
@@ -29113,7 +29137,7 @@
       </c>
       <c r="AN125" s="5"/>
       <c r="AO125" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AU125" s="5"/>
     </row>
@@ -29228,7 +29252,7 @@
         <v>500</v>
       </c>
       <c r="AJ126" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK126" s="66" t="s">
         <v>510</v>
@@ -29241,7 +29265,7 @@
       </c>
       <c r="AN126" s="5"/>
       <c r="AO126" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AU126" s="5"/>
     </row>
@@ -29356,7 +29380,7 @@
         <v>500</v>
       </c>
       <c r="AJ127" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK127" s="66" t="s">
         <v>510</v>
@@ -29369,7 +29393,7 @@
       </c>
       <c r="AN127" s="5"/>
       <c r="AO127" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AU127" s="5"/>
     </row>
@@ -29488,10 +29512,13 @@
       </c>
       <c r="AN128" s="5"/>
       <c r="AO128" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AP128" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
+      </c>
+      <c r="AQ128" s="69" t="s">
+        <v>663</v>
       </c>
       <c r="AU128" s="5"/>
     </row>
@@ -29610,10 +29637,13 @@
       </c>
       <c r="AN129" s="5"/>
       <c r="AO129" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AP129" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
+      </c>
+      <c r="AQ129" s="69" t="s">
+        <v>663</v>
       </c>
       <c r="AU129" s="5"/>
     </row>
@@ -29732,10 +29762,13 @@
       </c>
       <c r="AN130" s="5"/>
       <c r="AO130" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AP130" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
+      </c>
+      <c r="AQ130" s="69" t="s">
+        <v>663</v>
       </c>
       <c r="AU130" s="5"/>
     </row>
@@ -29854,10 +29887,13 @@
       </c>
       <c r="AN131" s="5"/>
       <c r="AO131" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AP131" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
+      </c>
+      <c r="AQ131" s="69" t="s">
+        <v>663</v>
       </c>
       <c r="AU131" s="5"/>
     </row>
@@ -29976,10 +30012,13 @@
       </c>
       <c r="AN132" s="5"/>
       <c r="AO132" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AP132" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
+      </c>
+      <c r="AQ132" s="69" t="s">
+        <v>663</v>
       </c>
       <c r="AU132" s="5"/>
     </row>
@@ -30098,10 +30137,13 @@
       </c>
       <c r="AN133" s="5"/>
       <c r="AO133" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AP133" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
+      </c>
+      <c r="AQ133" s="69" t="s">
+        <v>663</v>
       </c>
       <c r="AU133" s="5"/>
     </row>
@@ -30220,10 +30262,13 @@
       </c>
       <c r="AN134" s="5"/>
       <c r="AO134" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AP134" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
+      </c>
+      <c r="AQ134" s="69" t="s">
+        <v>663</v>
       </c>
       <c r="AU134" s="5"/>
     </row>
@@ -30342,10 +30387,13 @@
       </c>
       <c r="AN135" s="5"/>
       <c r="AO135" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AP135" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
+      </c>
+      <c r="AQ135" s="69" t="s">
+        <v>663</v>
       </c>
       <c r="AU135" s="5"/>
     </row>
@@ -30464,10 +30512,13 @@
       </c>
       <c r="AN136" s="5"/>
       <c r="AO136" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AP136" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
+      </c>
+      <c r="AQ136" s="69" t="s">
+        <v>663</v>
       </c>
       <c r="AU136" s="5"/>
     </row>
@@ -30586,10 +30637,13 @@
       </c>
       <c r="AN137" s="5"/>
       <c r="AO137" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AP137" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
+      </c>
+      <c r="AQ137" s="69" t="s">
+        <v>663</v>
       </c>
       <c r="AU137" s="5"/>
     </row>
@@ -30708,10 +30762,13 @@
       </c>
       <c r="AN138" s="5"/>
       <c r="AO138" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AP138" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
+      </c>
+      <c r="AQ138" s="69" t="s">
+        <v>663</v>
       </c>
       <c r="AU138" s="5"/>
     </row>
@@ -30830,10 +30887,13 @@
       </c>
       <c r="AN139" s="5"/>
       <c r="AO139" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AP139" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
+      </c>
+      <c r="AQ139" s="69" t="s">
+        <v>663</v>
       </c>
       <c r="AU139" s="5"/>
     </row>
@@ -30848,7 +30908,7 @@
         <v>48</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>106</v>
@@ -30954,10 +31014,10 @@
         <v>527</v>
       </c>
       <c r="AN140" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AO140" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AU140" s="5"/>
     </row>
@@ -30972,7 +31032,7 @@
         <v>48</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>106</v>
@@ -31078,10 +31138,10 @@
         <v>527</v>
       </c>
       <c r="AN141" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AO141" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AU141" s="5"/>
     </row>
@@ -31096,7 +31156,7 @@
         <v>48</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E142" s="5" t="s">
         <v>106</v>
@@ -31202,10 +31262,10 @@
         <v>527</v>
       </c>
       <c r="AN142" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AO142" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AU142" s="5"/>
     </row>
@@ -31220,7 +31280,7 @@
         <v>48</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E143" s="5" t="s">
         <v>11</v>
@@ -31318,7 +31378,7 @@
         <v>501</v>
       </c>
       <c r="AJ143" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK143" s="66" t="s">
         <v>508</v>
@@ -31330,10 +31390,10 @@
         <v>528</v>
       </c>
       <c r="AN143" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AO143" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AU143" s="5"/>
     </row>
@@ -31348,7 +31408,7 @@
         <v>48</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E144" s="45" t="s">
         <v>11</v>
@@ -31446,22 +31506,22 @@
         <v>502</v>
       </c>
       <c r="AJ144" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK144" s="66" t="s">
         <v>508</v>
       </c>
       <c r="AL144" s="45" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AM144" s="45" t="s">
         <v>528</v>
       </c>
       <c r="AN144" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AO144" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AU144" s="5"/>
     </row>
@@ -31476,7 +31536,7 @@
         <v>48</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E145" s="45" t="s">
         <v>11</v>
@@ -31574,22 +31634,22 @@
         <v>502</v>
       </c>
       <c r="AJ145" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK145" s="66" t="s">
         <v>508</v>
       </c>
       <c r="AL145" s="45" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AM145" s="45" t="s">
         <v>528</v>
       </c>
       <c r="AN145" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AO145" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AU145" s="5"/>
     </row>
@@ -31704,7 +31764,7 @@
         <v>503</v>
       </c>
       <c r="AJ146" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK146" s="66" t="s">
         <v>508</v>
@@ -31716,28 +31776,28 @@
         <v>525</v>
       </c>
       <c r="AN146" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AO146" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AP146" s="45" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AQ146" s="69" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AS146" s="45" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AT146" s="45" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AU146" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AV146" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="147" spans="1:48" ht="15" x14ac:dyDescent="0.25">
@@ -31851,7 +31911,7 @@
         <v>503</v>
       </c>
       <c r="AJ147" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK147" s="66" t="s">
         <v>508</v>
@@ -31863,28 +31923,28 @@
         <v>525</v>
       </c>
       <c r="AN147" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AO147" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AP147" s="45" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AQ147" s="69" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AS147" s="45" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AT147" s="45" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AU147" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AV147" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="148" spans="1:48" ht="15" x14ac:dyDescent="0.25">
@@ -31998,7 +32058,7 @@
         <v>503</v>
       </c>
       <c r="AJ148" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK148" s="66" t="s">
         <v>508</v>
@@ -32010,28 +32070,28 @@
         <v>525</v>
       </c>
       <c r="AN148" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AO148" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AP148" s="45" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AQ148" s="69" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AS148" s="45" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AT148" s="45" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AU148" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AV148" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="149" spans="1:48" ht="15" x14ac:dyDescent="0.25">
@@ -32145,7 +32205,7 @@
         <v>503</v>
       </c>
       <c r="AJ149" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK149" s="66" t="s">
         <v>508</v>
@@ -32157,28 +32217,28 @@
         <v>528</v>
       </c>
       <c r="AN149" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AO149" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AP149" s="45" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AQ149" s="69" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AS149" s="45" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AT149" s="45" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AU149" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AV149" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="150" spans="1:48" ht="15" x14ac:dyDescent="0.25">
@@ -32292,7 +32352,7 @@
         <v>503</v>
       </c>
       <c r="AJ150" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK150" s="66" t="s">
         <v>508</v>
@@ -32304,28 +32364,28 @@
         <v>528</v>
       </c>
       <c r="AN150" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AO150" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AP150" s="45" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AQ150" s="69" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AS150" s="45" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AT150" s="45" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AU150" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AV150" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="151" spans="1:48" ht="15" x14ac:dyDescent="0.25">
@@ -32439,7 +32499,7 @@
         <v>503</v>
       </c>
       <c r="AJ151" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK151" s="66" t="s">
         <v>508</v>
@@ -32451,28 +32511,28 @@
         <v>528</v>
       </c>
       <c r="AN151" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AO151" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AP151" s="45" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AQ151" s="69" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AS151" s="45" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AT151" s="45" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AU151" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AV151" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="152" spans="1:48" ht="15" x14ac:dyDescent="0.25">
@@ -32582,40 +32642,40 @@
         <v>503</v>
       </c>
       <c r="AJ152" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK152" s="66" t="s">
         <v>508</v>
       </c>
       <c r="AL152" s="45" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="AM152" s="5" t="s">
         <v>527</v>
       </c>
       <c r="AN152" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AO152" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AP152" s="45" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AQ152" s="69" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AS152" s="45" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AT152" s="45" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AU152" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AV152" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="153" spans="1:48" ht="15" x14ac:dyDescent="0.25">
@@ -32725,40 +32785,40 @@
         <v>503</v>
       </c>
       <c r="AJ153" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK153" s="66" t="s">
         <v>508</v>
       </c>
       <c r="AL153" s="45" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="AM153" s="5" t="s">
         <v>527</v>
       </c>
       <c r="AN153" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AO153" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AP153" s="45" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AQ153" s="69" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AS153" s="45" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AT153" s="45" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AU153" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AV153" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="154" spans="1:48" ht="15" x14ac:dyDescent="0.25">
@@ -32872,7 +32932,7 @@
         <v>504</v>
       </c>
       <c r="AJ154" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK154" s="66" t="s">
         <v>508</v>
@@ -32884,28 +32944,28 @@
         <v>525</v>
       </c>
       <c r="AN154" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AO154" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AP154" s="45" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AQ154" s="69" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AS154" s="45" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AT154" s="45" t="s">
+        <v>622</v>
+      </c>
+      <c r="AU154" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="AV154" s="5" t="s">
         <v>623</v>
-      </c>
-      <c r="AU154" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="AV154" s="5" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="155" spans="1:48" ht="15" x14ac:dyDescent="0.25">
@@ -33019,7 +33079,7 @@
         <v>504</v>
       </c>
       <c r="AJ155" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK155" s="66" t="s">
         <v>508</v>
@@ -33031,28 +33091,28 @@
         <v>525</v>
       </c>
       <c r="AN155" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AO155" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AP155" s="45" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AQ155" s="69" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AS155" s="45" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AT155" s="45" t="s">
+        <v>622</v>
+      </c>
+      <c r="AU155" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="AV155" s="5" t="s">
         <v>623</v>
-      </c>
-      <c r="AU155" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="AV155" s="5" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="156" spans="1:48" ht="15" x14ac:dyDescent="0.25">
@@ -33166,7 +33226,7 @@
         <v>504</v>
       </c>
       <c r="AJ156" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK156" s="66" t="s">
         <v>508</v>
@@ -33178,28 +33238,28 @@
         <v>525</v>
       </c>
       <c r="AN156" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AO156" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AP156" s="45" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AQ156" s="69" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AS156" s="45" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AT156" s="45" t="s">
+        <v>622</v>
+      </c>
+      <c r="AU156" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="AV156" s="5" t="s">
         <v>623</v>
-      </c>
-      <c r="AU156" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="AV156" s="5" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="157" spans="1:48" ht="15" x14ac:dyDescent="0.25">
@@ -33313,7 +33373,7 @@
         <v>504</v>
       </c>
       <c r="AJ157" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK157" s="66" t="s">
         <v>508</v>
@@ -33325,28 +33385,28 @@
         <v>528</v>
       </c>
       <c r="AN157" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AO157" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AP157" s="45" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AQ157" s="69" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AS157" s="45" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AT157" s="45" t="s">
+        <v>622</v>
+      </c>
+      <c r="AU157" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="AV157" s="5" t="s">
         <v>623</v>
-      </c>
-      <c r="AU157" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="AV157" s="5" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="158" spans="1:48" ht="15" x14ac:dyDescent="0.25">
@@ -33460,7 +33520,7 @@
         <v>504</v>
       </c>
       <c r="AJ158" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK158" s="66" t="s">
         <v>508</v>
@@ -33472,28 +33532,28 @@
         <v>528</v>
       </c>
       <c r="AN158" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AO158" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AP158" s="45" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AQ158" s="69" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AS158" s="45" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AT158" s="45" t="s">
+        <v>622</v>
+      </c>
+      <c r="AU158" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="AV158" s="5" t="s">
         <v>623</v>
-      </c>
-      <c r="AU158" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="AV158" s="5" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="159" spans="1:48" ht="15" x14ac:dyDescent="0.25">
@@ -33607,7 +33667,7 @@
         <v>504</v>
       </c>
       <c r="AJ159" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK159" s="66" t="s">
         <v>508</v>
@@ -33619,28 +33679,28 @@
         <v>528</v>
       </c>
       <c r="AN159" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AO159" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AP159" s="45" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AQ159" s="69" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AS159" s="45" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AT159" s="45" t="s">
+        <v>622</v>
+      </c>
+      <c r="AU159" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="AV159" s="5" t="s">
         <v>623</v>
-      </c>
-      <c r="AU159" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="AV159" s="5" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="160" spans="1:48" ht="15" x14ac:dyDescent="0.25">
@@ -33750,40 +33810,40 @@
         <v>504</v>
       </c>
       <c r="AJ160" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK160" s="66" t="s">
         <v>508</v>
       </c>
       <c r="AL160" s="45" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="AM160" s="5" t="s">
         <v>527</v>
       </c>
       <c r="AN160" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AO160" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AP160" s="45" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AQ160" s="69" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AS160" s="45" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AT160" s="45" t="s">
+        <v>622</v>
+      </c>
+      <c r="AU160" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="AV160" s="5" t="s">
         <v>623</v>
-      </c>
-      <c r="AU160" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="AV160" s="5" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="161" spans="1:48" ht="15" x14ac:dyDescent="0.25">
@@ -33893,40 +33953,40 @@
         <v>504</v>
       </c>
       <c r="AJ161" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK161" s="66" t="s">
         <v>508</v>
       </c>
       <c r="AL161" s="45" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="AM161" s="10" t="s">
         <v>527</v>
       </c>
       <c r="AN161" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AO161" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AP161" s="45" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AQ161" s="69" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AS161" s="45" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AT161" s="45" t="s">
+        <v>622</v>
+      </c>
+      <c r="AU161" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="AV161" s="5" t="s">
         <v>623</v>
-      </c>
-      <c r="AU161" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="AV161" s="5" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="162" spans="1:48" ht="15" x14ac:dyDescent="0.25">
@@ -33940,7 +34000,7 @@
         <v>48</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E162" s="5" t="s">
         <v>11</v>
@@ -34038,7 +34098,7 @@
         <v>505</v>
       </c>
       <c r="AJ162" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK162" s="66" t="s">
         <v>508</v>
@@ -34050,10 +34110,10 @@
         <v>528</v>
       </c>
       <c r="AN162" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AO162" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AU162" s="5"/>
     </row>
@@ -34068,7 +34128,7 @@
         <v>48</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>11</v>
@@ -34166,7 +34226,7 @@
         <v>505</v>
       </c>
       <c r="AJ163" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK163" s="66" t="s">
         <v>508</v>
@@ -34178,10 +34238,10 @@
         <v>528</v>
       </c>
       <c r="AN163" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AO163" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AU163" s="5"/>
     </row>
@@ -34196,7 +34256,7 @@
         <v>48</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>11</v>
@@ -34302,10 +34362,10 @@
         <v>528</v>
       </c>
       <c r="AN164" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AO164" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AU164" s="5"/>
     </row>
@@ -34428,16 +34488,16 @@
         <v>528</v>
       </c>
       <c r="AN165" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AO165" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AP165" s="5" t="s">
-        <v>582</v>
-      </c>
-      <c r="AQ165" s="5" t="s">
-        <v>621</v>
+        <v>581</v>
+      </c>
+      <c r="AQ165" s="70" t="s">
+        <v>620</v>
       </c>
       <c r="AU165" s="5"/>
     </row>
@@ -34560,22 +34620,22 @@
         <v>528</v>
       </c>
       <c r="AN166" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AO166" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AP166" s="45" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AQ166" s="69" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AS166" s="10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AT166" s="45" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AU166" s="10"/>
     </row>
@@ -34590,7 +34650,7 @@
         <v>48</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E167" s="5" t="s">
         <v>11</v>
@@ -34695,10 +34755,10 @@
         <v>528</v>
       </c>
       <c r="AN167" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AO167" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AU167" s="5"/>
     </row>
@@ -34713,7 +34773,7 @@
         <v>48</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E168" s="5" t="s">
         <v>106</v>
@@ -34819,10 +34879,10 @@
         <v>527</v>
       </c>
       <c r="AN168" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AO168" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AU168" s="5"/>
     </row>
@@ -34837,7 +34897,7 @@
         <v>48</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E169" s="5" t="s">
         <v>106</v>
@@ -34943,10 +35003,10 @@
         <v>527</v>
       </c>
       <c r="AN169" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AO169" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AU169" s="5"/>
     </row>
@@ -34961,7 +35021,7 @@
         <v>48</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>106</v>
@@ -35067,10 +35127,10 @@
         <v>527</v>
       </c>
       <c r="AN170" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AO170" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AU170" s="5"/>
     </row>
@@ -35187,7 +35247,7 @@
         <v>506</v>
       </c>
       <c r="AJ171" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK171" s="66" t="s">
         <v>509</v>
@@ -35199,10 +35259,10 @@
         <v>525</v>
       </c>
       <c r="AN171" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AO171" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AU171" s="5"/>
     </row>
@@ -35319,7 +35379,7 @@
         <v>506</v>
       </c>
       <c r="AJ172" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK172" s="66" t="s">
         <v>509</v>
@@ -35331,10 +35391,10 @@
         <v>525</v>
       </c>
       <c r="AN172" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AO172" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AU172" s="5"/>
     </row>
@@ -35451,7 +35511,7 @@
         <v>506</v>
       </c>
       <c r="AJ173" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK173" s="66" t="s">
         <v>509</v>
@@ -35463,10 +35523,10 @@
         <v>525</v>
       </c>
       <c r="AN173" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AO173" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AU173" s="5"/>
     </row>
@@ -35579,22 +35639,22 @@
         <v>506</v>
       </c>
       <c r="AJ174" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK174" s="66" t="s">
         <v>509</v>
       </c>
       <c r="AL174" s="45" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="AM174" s="5" t="s">
         <v>528</v>
       </c>
       <c r="AN174" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AO174" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AU174" s="5"/>
     </row>
@@ -35711,7 +35771,7 @@
         <v>506</v>
       </c>
       <c r="AJ175" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK175" s="66" t="s">
         <v>509</v>
@@ -35723,10 +35783,10 @@
         <v>528</v>
       </c>
       <c r="AN175" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AO175" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AU175" s="5"/>
     </row>
@@ -35839,22 +35899,22 @@
         <v>506</v>
       </c>
       <c r="AJ176" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK176" s="66" t="s">
         <v>509</v>
       </c>
       <c r="AL176" s="45" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="AM176" s="5" t="s">
         <v>528</v>
       </c>
       <c r="AN176" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AO176" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AU176" s="5"/>
     </row>
@@ -35869,7 +35929,7 @@
         <v>60</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E177" s="5" t="s">
         <v>11</v>
@@ -35971,7 +36031,7 @@
         <v>506</v>
       </c>
       <c r="AJ177" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK177" s="66" t="s">
         <v>509</v>
@@ -35983,10 +36043,10 @@
         <v>528</v>
       </c>
       <c r="AN177" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AO177" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AU177" s="5"/>
     </row>
@@ -36103,7 +36163,7 @@
         <v>506</v>
       </c>
       <c r="AJ178" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK178" s="66" t="s">
         <v>509</v>
@@ -36115,10 +36175,10 @@
         <v>528</v>
       </c>
       <c r="AN178" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AO178" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AU178" s="5"/>
     </row>
@@ -36235,7 +36295,7 @@
         <v>506</v>
       </c>
       <c r="AJ179" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK179" s="66" t="s">
         <v>509</v>
@@ -36247,10 +36307,10 @@
         <v>528</v>
       </c>
       <c r="AN179" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AO179" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AU179" s="5"/>
     </row>
@@ -36363,22 +36423,22 @@
         <v>506</v>
       </c>
       <c r="AJ180" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK180" s="66" t="s">
         <v>509</v>
       </c>
       <c r="AL180" s="45" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="AM180" s="5" t="s">
         <v>528</v>
       </c>
       <c r="AN180" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AO180" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AU180" s="5"/>
     </row>
@@ -36393,7 +36453,7 @@
         <v>60</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E181" s="5" t="s">
         <v>106</v>
@@ -36495,7 +36555,7 @@
         <v>506</v>
       </c>
       <c r="AJ181" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK181" s="66" t="s">
         <v>509</v>
@@ -36507,10 +36567,10 @@
         <v>527</v>
       </c>
       <c r="AN181" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AO181" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AU181" s="5"/>
     </row>
@@ -36525,7 +36585,7 @@
         <v>60</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E182" s="5" t="s">
         <v>106</v>
@@ -36627,7 +36687,7 @@
         <v>506</v>
       </c>
       <c r="AJ182" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK182" s="66" t="s">
         <v>509</v>
@@ -36639,10 +36699,10 @@
         <v>527</v>
       </c>
       <c r="AN182" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AO182" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AU182" s="5"/>
     </row>
@@ -36657,7 +36717,7 @@
         <v>60</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E183" s="5" t="s">
         <v>106</v>
@@ -36759,7 +36819,7 @@
         <v>506</v>
       </c>
       <c r="AJ183" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK183" s="66" t="s">
         <v>509</v>
@@ -36771,10 +36831,10 @@
         <v>527</v>
       </c>
       <c r="AN183" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AO183" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AU183" s="5"/>
     </row>
@@ -36889,7 +36949,7 @@
         <v>507</v>
       </c>
       <c r="AJ184" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK184" s="66" t="s">
         <v>509</v>
@@ -36901,19 +36961,19 @@
         <v>525</v>
       </c>
       <c r="AN184" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AO184" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="AP184" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="AQ184" s="69" t="s">
         <v>606</v>
       </c>
-      <c r="AP184" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="AQ184" s="69" t="s">
-        <v>607</v>
-      </c>
       <c r="AR184" s="73" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AU184" s="5"/>
     </row>
@@ -37028,7 +37088,7 @@
         <v>507</v>
       </c>
       <c r="AJ185" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK185" s="66" t="s">
         <v>509</v>
@@ -37040,19 +37100,19 @@
         <v>525</v>
       </c>
       <c r="AN185" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AO185" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="AP185" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="AQ185" s="69" t="s">
         <v>606</v>
       </c>
-      <c r="AP185" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="AQ185" s="69" t="s">
-        <v>607</v>
-      </c>
       <c r="AR185" s="73" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AU185" s="5"/>
     </row>
@@ -37167,7 +37227,7 @@
         <v>507</v>
       </c>
       <c r="AJ186" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK186" s="66" t="s">
         <v>509</v>
@@ -37179,19 +37239,19 @@
         <v>525</v>
       </c>
       <c r="AN186" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AO186" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="AP186" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="AQ186" s="69" t="s">
         <v>606</v>
       </c>
-      <c r="AP186" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="AQ186" s="69" t="s">
-        <v>607</v>
-      </c>
       <c r="AR186" s="73" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AU186" s="5"/>
     </row>
@@ -37306,7 +37366,7 @@
         <v>507</v>
       </c>
       <c r="AJ187" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK187" s="66" t="s">
         <v>509</v>
@@ -37318,19 +37378,19 @@
         <v>528</v>
       </c>
       <c r="AN187" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AO187" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="AP187" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="AQ187" s="69" t="s">
         <v>606</v>
       </c>
-      <c r="AP187" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="AQ187" s="69" t="s">
-        <v>607</v>
-      </c>
       <c r="AR187" s="73" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AU187" s="5"/>
     </row>
@@ -37445,7 +37505,7 @@
         <v>507</v>
       </c>
       <c r="AJ188" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK188" s="66" t="s">
         <v>509</v>
@@ -37457,19 +37517,19 @@
         <v>528</v>
       </c>
       <c r="AN188" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AO188" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="AP188" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="AQ188" s="69" t="s">
         <v>606</v>
       </c>
-      <c r="AP188" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="AQ188" s="69" t="s">
-        <v>607</v>
-      </c>
       <c r="AR188" s="73" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AU188" s="5"/>
     </row>
@@ -37584,7 +37644,7 @@
         <v>507</v>
       </c>
       <c r="AJ189" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK189" s="66" t="s">
         <v>509</v>
@@ -37596,19 +37656,19 @@
         <v>528</v>
       </c>
       <c r="AN189" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AO189" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="AP189" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="AQ189" s="69" t="s">
         <v>606</v>
       </c>
-      <c r="AP189" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="AQ189" s="69" t="s">
-        <v>607</v>
-      </c>
       <c r="AR189" s="73" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AU189" s="5"/>
     </row>
@@ -37723,7 +37783,7 @@
         <v>507</v>
       </c>
       <c r="AJ190" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK190" s="66" t="s">
         <v>509</v>
@@ -37735,19 +37795,19 @@
         <v>528</v>
       </c>
       <c r="AN190" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AO190" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="AP190" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="AQ190" s="69" t="s">
         <v>606</v>
       </c>
-      <c r="AP190" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="AQ190" s="69" t="s">
-        <v>607</v>
-      </c>
       <c r="AR190" s="73" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AU190" s="5"/>
     </row>
@@ -37862,7 +37922,7 @@
         <v>507</v>
       </c>
       <c r="AJ191" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK191" s="66" t="s">
         <v>509</v>
@@ -37874,19 +37934,19 @@
         <v>527</v>
       </c>
       <c r="AN191" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AO191" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="AP191" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="AQ191" s="69" t="s">
         <v>606</v>
       </c>
-      <c r="AP191" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="AQ191" s="69" t="s">
-        <v>607</v>
-      </c>
       <c r="AR191" s="73" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AU191" s="5"/>
     </row>
@@ -38001,7 +38061,7 @@
         <v>507</v>
       </c>
       <c r="AJ192" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK192" s="66" t="s">
         <v>509</v>
@@ -38013,19 +38073,19 @@
         <v>527</v>
       </c>
       <c r="AN192" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AO192" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="AP192" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="AQ192" s="69" t="s">
         <v>606</v>
       </c>
-      <c r="AP192" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="AQ192" s="69" t="s">
-        <v>607</v>
-      </c>
       <c r="AR192" s="73" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AU192" s="5"/>
     </row>
@@ -38140,7 +38200,7 @@
         <v>507</v>
       </c>
       <c r="AJ193" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AK193" s="66" t="s">
         <v>509</v>
@@ -38152,19 +38212,19 @@
         <v>527</v>
       </c>
       <c r="AN193" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AO193" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="AP193" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="AQ193" s="69" t="s">
         <v>606</v>
       </c>
-      <c r="AP193" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="AQ193" s="69" t="s">
-        <v>607</v>
-      </c>
       <c r="AR193" s="73" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AU193" s="5"/>
     </row>

--- a/src/test/resources/net/enanomapper/parser/xlsx/modena/MODENA-EC50_EC25.xlsx
+++ b/src/test/resources/net/enanomapper/parser/xlsx/modena/MODENA-EC50_EC25.xlsx
@@ -4519,9 +4519,6 @@
     <t>7440-02-0</t>
   </si>
   <si>
-    <t>60676-86-0</t>
-  </si>
-  <si>
     <t xml:space="preserve">1317-70-0  </t>
   </si>
   <si>
@@ -4715,6 +4712,9 @@
   </si>
   <si>
     <t>6132-04-3</t>
+  </si>
+  <si>
+    <t>7631-86-9</t>
   </si>
 </sst>
 </file>
@@ -13684,10 +13684,10 @@
   <dimension ref="A1:AY193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AM2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="V117" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AP116" sqref="AP116:AP120"/>
+      <selection pane="bottomRight" activeCell="AN140" sqref="AN140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13732,7 +13732,7 @@
         <v>154</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
@@ -13834,7 +13834,7 @@
         <v>496</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AK1" s="3" t="s">
         <v>517</v>
@@ -13852,31 +13852,31 @@
         <v>589</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AQ1" s="68" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AR1" s="72" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>583</v>
       </c>
       <c r="AT1" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="AU1" s="1" t="s">
-        <v>633</v>
-      </c>
       <c r="AV1" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="2" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -13989,7 +13989,7 @@
         <v>497</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK2" s="65" t="s">
         <v>511</v>
@@ -14007,7 +14007,7 @@
         <v>593</v>
       </c>
       <c r="AP2" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AQ2" s="69" t="s">
         <v>590</v>
@@ -14018,7 +14018,7 @@
         <v>578</v>
       </c>
       <c r="AX2" s="45" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="3" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -14131,7 +14131,7 @@
         <v>497</v>
       </c>
       <c r="AJ3" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK3" s="65" t="s">
         <v>511</v>
@@ -14149,7 +14149,7 @@
         <v>593</v>
       </c>
       <c r="AP3" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AQ3" s="69" t="s">
         <v>590</v>
@@ -14160,7 +14160,7 @@
         <v>578</v>
       </c>
       <c r="AX3" s="45" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="4" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -14273,7 +14273,7 @@
         <v>497</v>
       </c>
       <c r="AJ4" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK4" s="65" t="s">
         <v>511</v>
@@ -14291,7 +14291,7 @@
         <v>593</v>
       </c>
       <c r="AP4" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AQ4" s="69" t="s">
         <v>590</v>
@@ -14302,7 +14302,7 @@
         <v>578</v>
       </c>
       <c r="AX4" s="45" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="5" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -14415,7 +14415,7 @@
         <v>497</v>
       </c>
       <c r="AJ5" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK5" s="65" t="s">
         <v>511</v>
@@ -14433,7 +14433,7 @@
         <v>593</v>
       </c>
       <c r="AP5" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AQ5" s="69" t="s">
         <v>590</v>
@@ -14444,7 +14444,7 @@
         <v>578</v>
       </c>
       <c r="AX5" s="45" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="6" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -14557,7 +14557,7 @@
         <v>497</v>
       </c>
       <c r="AJ6" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK6" s="65" t="s">
         <v>511</v>
@@ -14575,7 +14575,7 @@
         <v>593</v>
       </c>
       <c r="AP6" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AQ6" s="69" t="s">
         <v>590</v>
@@ -14586,7 +14586,7 @@
         <v>578</v>
       </c>
       <c r="AX6" s="45" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="7" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -14699,7 +14699,7 @@
         <v>497</v>
       </c>
       <c r="AJ7" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK7" s="65" t="s">
         <v>511</v>
@@ -14717,7 +14717,7 @@
         <v>593</v>
       </c>
       <c r="AP7" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AQ7" s="69" t="s">
         <v>590</v>
@@ -14728,7 +14728,7 @@
         <v>578</v>
       </c>
       <c r="AX7" s="45" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="8" spans="1:50" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -14852,7 +14852,7 @@
         <v>82</v>
       </c>
       <c r="AQ8" s="75" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AU8" s="5"/>
     </row>
@@ -14981,7 +14981,7 @@
         <v>82</v>
       </c>
       <c r="AQ9" s="75" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AU9" s="5"/>
     </row>
@@ -15106,7 +15106,7 @@
         <v>82</v>
       </c>
       <c r="AQ10" s="75" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AU10" s="5"/>
     </row>
@@ -15235,7 +15235,7 @@
         <v>82</v>
       </c>
       <c r="AQ11" s="75" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AU11" s="5"/>
     </row>
@@ -16335,7 +16335,7 @@
         <v>497</v>
       </c>
       <c r="AJ20" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK20" s="65" t="s">
         <v>511</v>
@@ -16353,7 +16353,7 @@
         <v>593</v>
       </c>
       <c r="AP20" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AQ20" s="69" t="s">
         <v>590</v>
@@ -16361,10 +16361,10 @@
       <c r="AR20" s="45"/>
       <c r="AS20" s="5"/>
       <c r="AW20" s="45" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AX20" s="45" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AY20" s="73"/>
     </row>
@@ -16494,7 +16494,7 @@
         <v>82</v>
       </c>
       <c r="AQ21" s="75" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AU21" s="5"/>
     </row>
@@ -16624,7 +16624,7 @@
         <v>82</v>
       </c>
       <c r="AQ22" s="75" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AU22" s="5"/>
     </row>
@@ -16754,7 +16754,7 @@
         <v>82</v>
       </c>
       <c r="AQ23" s="75" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AU23" s="5"/>
     </row>
@@ -17380,7 +17380,7 @@
         <v>82</v>
       </c>
       <c r="AQ28" s="75" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AU28" s="5"/>
     </row>
@@ -17510,7 +17510,7 @@
         <v>82</v>
       </c>
       <c r="AQ29" s="75" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AU29" s="5"/>
     </row>
@@ -17618,7 +17618,7 @@
         <v>498</v>
       </c>
       <c r="AJ30" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK30" s="65" t="s">
         <v>512</v>
@@ -17640,10 +17640,10 @@
         <v>21</v>
       </c>
       <c r="AX30" s="70" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AY30" s="73" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="31" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -17657,7 +17657,7 @@
         <v>20</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>11</v>
@@ -17746,13 +17746,13 @@
         <v>498</v>
       </c>
       <c r="AJ31" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK31" s="65" t="s">
         <v>512</v>
       </c>
       <c r="AL31" s="45" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AM31" s="5" t="s">
         <v>528</v>
@@ -17871,7 +17871,7 @@
         <v>498</v>
       </c>
       <c r="AJ32" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK32" s="65" t="s">
         <v>512</v>
@@ -17893,10 +17893,10 @@
         <v>21</v>
       </c>
       <c r="AX32" s="70" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AY32" s="73" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="33" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -18003,7 +18003,7 @@
         <v>498</v>
       </c>
       <c r="AJ33" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK33" s="65" t="s">
         <v>512</v>
@@ -18025,10 +18025,10 @@
         <v>21</v>
       </c>
       <c r="AX33" s="70" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AY33" s="73" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="34" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -18135,7 +18135,7 @@
         <v>520</v>
       </c>
       <c r="AJ34" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK34" s="65" t="s">
         <v>512</v>
@@ -18157,10 +18157,10 @@
         <v>21</v>
       </c>
       <c r="AX34" s="70" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AY34" s="73" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="35" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -18267,7 +18267,7 @@
         <v>520</v>
       </c>
       <c r="AJ35" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK35" s="65" t="s">
         <v>512</v>
@@ -18289,10 +18289,10 @@
         <v>21</v>
       </c>
       <c r="AX35" s="70" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AY35" s="73" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="36" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -18399,7 +18399,7 @@
         <v>520</v>
       </c>
       <c r="AJ36" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK36" s="65" t="s">
         <v>512</v>
@@ -18421,10 +18421,10 @@
         <v>21</v>
       </c>
       <c r="AX36" s="70" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AY36" s="73" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="37" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -18531,7 +18531,7 @@
         <v>521</v>
       </c>
       <c r="AJ37" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK37" s="65" t="s">
         <v>512</v>
@@ -18553,10 +18553,10 @@
         <v>21</v>
       </c>
       <c r="AX37" s="70" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AY37" s="73" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="38" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -18570,7 +18570,7 @@
         <v>20</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>11</v>
@@ -18588,7 +18588,7 @@
         <v>109</v>
       </c>
       <c r="J38" s="14" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K38" s="15" t="s">
         <v>126</v>
@@ -18659,13 +18659,13 @@
         <v>521</v>
       </c>
       <c r="AJ38" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK38" s="65" t="s">
         <v>512</v>
       </c>
       <c r="AL38" s="45" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AM38" s="5" t="s">
         <v>528</v>
@@ -18784,7 +18784,7 @@
         <v>521</v>
       </c>
       <c r="AJ39" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK39" s="65" t="s">
         <v>512</v>
@@ -18806,10 +18806,10 @@
         <v>21</v>
       </c>
       <c r="AX39" s="70" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AY39" s="73" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="40" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -18916,7 +18916,7 @@
         <v>521</v>
       </c>
       <c r="AJ40" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK40" s="65" t="s">
         <v>512</v>
@@ -18938,10 +18938,10 @@
         <v>21</v>
       </c>
       <c r="AX40" s="70" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AY40" s="73" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="41" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -19053,13 +19053,13 @@
         <v>499</v>
       </c>
       <c r="AJ41" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK41" s="65" t="s">
         <v>513</v>
       </c>
       <c r="AL41" s="45" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AM41" s="5" t="s">
         <v>528</v>
@@ -19181,13 +19181,13 @@
         <v>499</v>
       </c>
       <c r="AJ42" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK42" s="65" t="s">
         <v>513</v>
       </c>
       <c r="AL42" s="45" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AM42" s="5" t="s">
         <v>528</v>
@@ -19309,13 +19309,13 @@
         <v>518</v>
       </c>
       <c r="AJ43" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK43" s="65" t="s">
         <v>513</v>
       </c>
       <c r="AL43" s="45" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AM43" s="5" t="s">
         <v>528</v>
@@ -19437,13 +19437,13 @@
         <v>518</v>
       </c>
       <c r="AJ44" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK44" s="65" t="s">
         <v>513</v>
       </c>
       <c r="AL44" s="45" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AM44" s="5" t="s">
         <v>528</v>
@@ -19565,13 +19565,13 @@
         <v>519</v>
       </c>
       <c r="AJ45" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK45" s="65" t="s">
         <v>513</v>
       </c>
       <c r="AL45" s="45" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AM45" s="5" t="s">
         <v>528</v>
@@ -19693,13 +19693,13 @@
         <v>519</v>
       </c>
       <c r="AJ46" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK46" s="65" t="s">
         <v>513</v>
       </c>
       <c r="AL46" s="45" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AM46" s="5" t="s">
         <v>528</v>
@@ -19835,22 +19835,22 @@
         <v>597</v>
       </c>
       <c r="AP47" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AQ47" s="69" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AR47" s="73">
         <v>1</v>
       </c>
       <c r="AW47" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AX47" s="69" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AY47" s="73" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="48" spans="1:51" ht="15" x14ac:dyDescent="0.25">
@@ -19976,22 +19976,22 @@
         <v>597</v>
       </c>
       <c r="AP48" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AQ48" s="69" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AR48" s="73">
         <v>1</v>
       </c>
       <c r="AW48" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AX48" s="69" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AY48" s="73" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="49" spans="1:51" ht="15" x14ac:dyDescent="0.25">
@@ -20117,22 +20117,22 @@
         <v>597</v>
       </c>
       <c r="AP49" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AQ49" s="69" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AR49" s="73">
         <v>1</v>
       </c>
       <c r="AW49" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AX49" s="69" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AY49" s="73" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="50" spans="1:51" ht="15" x14ac:dyDescent="0.25">
@@ -20258,22 +20258,22 @@
         <v>597</v>
       </c>
       <c r="AP50" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AQ50" s="69" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AR50" s="73">
         <v>1</v>
       </c>
       <c r="AW50" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AX50" s="69" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AY50" s="73" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="51" spans="1:51" ht="15" x14ac:dyDescent="0.25">
@@ -20399,22 +20399,22 @@
         <v>597</v>
       </c>
       <c r="AP51" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AQ51" s="69" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AR51" s="73">
         <v>1</v>
       </c>
       <c r="AW51" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AX51" s="69" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AY51" s="73" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="52" spans="1:51" ht="15" x14ac:dyDescent="0.25">
@@ -20540,22 +20540,22 @@
         <v>597</v>
       </c>
       <c r="AP52" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AQ52" s="69" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AR52" s="73">
         <v>1</v>
       </c>
       <c r="AW52" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AX52" s="69" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AY52" s="73" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="53" spans="1:51" ht="15" x14ac:dyDescent="0.25">
@@ -20681,22 +20681,22 @@
         <v>597</v>
       </c>
       <c r="AP53" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AQ53" s="69" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AR53" s="73">
         <v>1</v>
       </c>
       <c r="AW53" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AX53" s="69" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AY53" s="73" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="54" spans="1:51" ht="15" x14ac:dyDescent="0.25">
@@ -20822,22 +20822,22 @@
         <v>597</v>
       </c>
       <c r="AP54" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AQ54" s="69" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AR54" s="73">
         <v>1</v>
       </c>
       <c r="AW54" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AX54" s="69" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AY54" s="73" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="55" spans="1:51" ht="15" x14ac:dyDescent="0.25">
@@ -20963,22 +20963,22 @@
         <v>597</v>
       </c>
       <c r="AP55" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AQ55" s="69" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AR55" s="73">
         <v>1</v>
       </c>
       <c r="AW55" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AX55" s="69" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AY55" s="73" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="56" spans="1:51" ht="15" x14ac:dyDescent="0.25">
@@ -21104,22 +21104,22 @@
         <v>597</v>
       </c>
       <c r="AP56" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AQ56" s="69" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AR56" s="73">
         <v>1</v>
       </c>
       <c r="AW56" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AX56" s="69" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AY56" s="73" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="57" spans="1:51" ht="15" x14ac:dyDescent="0.25">
@@ -21245,22 +21245,22 @@
         <v>597</v>
       </c>
       <c r="AP57" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AQ57" s="69" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AR57" s="73">
         <v>1</v>
       </c>
       <c r="AW57" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AX57" s="69" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AY57" s="73" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="58" spans="1:51" ht="15" x14ac:dyDescent="0.25">
@@ -21386,22 +21386,22 @@
         <v>597</v>
       </c>
       <c r="AP58" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AQ58" s="69" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AR58" s="73">
         <v>1</v>
       </c>
       <c r="AW58" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AX58" s="69" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AY58" s="73" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="59" spans="1:51" ht="15" x14ac:dyDescent="0.25">
@@ -21415,7 +21415,7 @@
         <v>94</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>96</v>
@@ -21492,7 +21492,7 @@
         <v>515</v>
       </c>
       <c r="AL59" s="45" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AM59" s="5" t="s">
         <v>526</v>
@@ -21516,7 +21516,7 @@
         <v>94</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>96</v>
@@ -21593,7 +21593,7 @@
         <v>515</v>
       </c>
       <c r="AL60" s="45" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AM60" s="5" t="s">
         <v>526</v>
@@ -21617,7 +21617,7 @@
         <v>94</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>96</v>
@@ -21694,7 +21694,7 @@
         <v>515</v>
       </c>
       <c r="AL61" s="45" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AM61" s="5" t="s">
         <v>526</v>
@@ -21718,7 +21718,7 @@
         <v>94</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>96</v>
@@ -21795,7 +21795,7 @@
         <v>515</v>
       </c>
       <c r="AL62" s="45" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AM62" s="5" t="s">
         <v>526</v>
@@ -21819,7 +21819,7 @@
         <v>94</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>96</v>
@@ -21896,7 +21896,7 @@
         <v>515</v>
       </c>
       <c r="AL63" s="45" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AM63" s="5" t="s">
         <v>526</v>
@@ -21920,7 +21920,7 @@
         <v>94</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>96</v>
@@ -21997,7 +21997,7 @@
         <v>515</v>
       </c>
       <c r="AL64" s="45" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AM64" s="5" t="s">
         <v>526</v>
@@ -22021,7 +22021,7 @@
         <v>94</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>96</v>
@@ -22098,7 +22098,7 @@
         <v>515</v>
       </c>
       <c r="AL65" s="45" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AM65" s="5" t="s">
         <v>526</v>
@@ -22122,7 +22122,7 @@
         <v>94</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>96</v>
@@ -22199,7 +22199,7 @@
         <v>515</v>
       </c>
       <c r="AL66" s="45" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AM66" s="5" t="s">
         <v>526</v>
@@ -22223,7 +22223,7 @@
         <v>94</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>96</v>
@@ -22300,7 +22300,7 @@
         <v>515</v>
       </c>
       <c r="AL67" s="45" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AM67" s="5" t="s">
         <v>526</v>
@@ -22324,7 +22324,7 @@
         <v>94</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>96</v>
@@ -22401,7 +22401,7 @@
         <v>515</v>
       </c>
       <c r="AL68" s="45" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AM68" s="5" t="s">
         <v>526</v>
@@ -22425,7 +22425,7 @@
         <v>94</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>96</v>
@@ -22502,7 +22502,7 @@
         <v>515</v>
       </c>
       <c r="AL69" s="45" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AM69" s="5" t="s">
         <v>526</v>
@@ -22526,7 +22526,7 @@
         <v>94</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>96</v>
@@ -22603,7 +22603,7 @@
         <v>515</v>
       </c>
       <c r="AL70" s="45" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AM70" s="5" t="s">
         <v>526</v>
@@ -22627,7 +22627,7 @@
         <v>103</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>96</v>
@@ -22720,7 +22720,7 @@
         <v>514</v>
       </c>
       <c r="AL71" s="45" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AM71" s="5" t="s">
         <v>526</v>
@@ -22744,7 +22744,7 @@
         <v>103</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>96</v>
@@ -22837,7 +22837,7 @@
         <v>514</v>
       </c>
       <c r="AL72" s="45" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AM72" s="5" t="s">
         <v>526</v>
@@ -22861,7 +22861,7 @@
         <v>103</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>96</v>
@@ -22954,7 +22954,7 @@
         <v>514</v>
       </c>
       <c r="AL73" s="45" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AM73" s="5" t="s">
         <v>526</v>
@@ -22978,7 +22978,7 @@
         <v>103</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>96</v>
@@ -23071,7 +23071,7 @@
         <v>514</v>
       </c>
       <c r="AL74" s="45" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AM74" s="5" t="s">
         <v>526</v>
@@ -23095,7 +23095,7 @@
         <v>103</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>96</v>
@@ -23188,7 +23188,7 @@
         <v>514</v>
       </c>
       <c r="AL75" s="45" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AM75" s="5" t="s">
         <v>526</v>
@@ -23212,7 +23212,7 @@
         <v>103</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>96</v>
@@ -23305,7 +23305,7 @@
         <v>514</v>
       </c>
       <c r="AL76" s="45" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AM76" s="5" t="s">
         <v>526</v>
@@ -23329,7 +23329,7 @@
         <v>103</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>96</v>
@@ -23422,7 +23422,7 @@
         <v>514</v>
       </c>
       <c r="AL77" s="45" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AM77" s="5" t="s">
         <v>526</v>
@@ -23446,7 +23446,7 @@
         <v>103</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>96</v>
@@ -23539,7 +23539,7 @@
         <v>514</v>
       </c>
       <c r="AL78" s="45" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AM78" s="5" t="s">
         <v>526</v>
@@ -23563,7 +23563,7 @@
         <v>103</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>96</v>
@@ -23656,7 +23656,7 @@
         <v>514</v>
       </c>
       <c r="AL79" s="45" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AM79" s="5" t="s">
         <v>526</v>
@@ -23680,7 +23680,7 @@
         <v>103</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>96</v>
@@ -23773,7 +23773,7 @@
         <v>514</v>
       </c>
       <c r="AL80" s="45" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AM80" s="5" t="s">
         <v>526</v>
@@ -23797,7 +23797,7 @@
         <v>103</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>96</v>
@@ -23890,7 +23890,7 @@
         <v>514</v>
       </c>
       <c r="AL81" s="45" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AM81" s="5" t="s">
         <v>526</v>
@@ -23914,7 +23914,7 @@
         <v>103</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>96</v>
@@ -24007,7 +24007,7 @@
         <v>514</v>
       </c>
       <c r="AL82" s="45" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AM82" s="5" t="s">
         <v>526</v>
@@ -24124,7 +24124,7 @@
         <v>514</v>
       </c>
       <c r="AL83" s="45" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AM83" s="5" t="s">
         <v>526</v>
@@ -24136,10 +24136,10 @@
         <v>599</v>
       </c>
       <c r="AP83" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AQ83" s="69" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AU83" s="5"/>
     </row>
@@ -24247,7 +24247,7 @@
         <v>514</v>
       </c>
       <c r="AL84" s="45" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AM84" s="5" t="s">
         <v>526</v>
@@ -24259,10 +24259,10 @@
         <v>599</v>
       </c>
       <c r="AP84" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AQ84" s="69" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AU84" s="5"/>
     </row>
@@ -24370,7 +24370,7 @@
         <v>514</v>
       </c>
       <c r="AL85" s="45" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AM85" s="5" t="s">
         <v>526</v>
@@ -24382,10 +24382,10 @@
         <v>599</v>
       </c>
       <c r="AP85" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AQ85" s="69" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AU85" s="5"/>
     </row>
@@ -24493,7 +24493,7 @@
         <v>514</v>
       </c>
       <c r="AL86" s="45" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AM86" s="5" t="s">
         <v>526</v>
@@ -24505,10 +24505,10 @@
         <v>599</v>
       </c>
       <c r="AP86" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AQ86" s="69" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AU86" s="5"/>
     </row>
@@ -24637,7 +24637,7 @@
         <v>149</v>
       </c>
       <c r="AQ87" s="69" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AU87" s="5"/>
     </row>
@@ -24766,7 +24766,7 @@
         <v>149</v>
       </c>
       <c r="AQ88" s="69" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AU88" s="5"/>
     </row>
@@ -24781,7 +24781,7 @@
         <v>103</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>11</v>
@@ -24905,7 +24905,7 @@
         <v>103</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>11</v>
@@ -25029,7 +25029,7 @@
         <v>102</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>96</v>
@@ -25106,7 +25106,7 @@
         <v>515</v>
       </c>
       <c r="AL91" s="45" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AM91" s="5" t="s">
         <v>526</v>
@@ -25130,7 +25130,7 @@
         <v>102</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>96</v>
@@ -25207,7 +25207,7 @@
         <v>515</v>
       </c>
       <c r="AL92" s="45" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AM92" s="5" t="s">
         <v>526</v>
@@ -25231,7 +25231,7 @@
         <v>102</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>96</v>
@@ -25308,7 +25308,7 @@
         <v>515</v>
       </c>
       <c r="AL93" s="45" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AM93" s="5" t="s">
         <v>526</v>
@@ -25332,7 +25332,7 @@
         <v>102</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>96</v>
@@ -25409,7 +25409,7 @@
         <v>515</v>
       </c>
       <c r="AL94" s="45" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AM94" s="5" t="s">
         <v>526</v>
@@ -25433,7 +25433,7 @@
         <v>100</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>96</v>
@@ -25510,7 +25510,7 @@
         <v>515</v>
       </c>
       <c r="AL95" s="45" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AM95" s="5" t="s">
         <v>526</v>
@@ -25534,7 +25534,7 @@
         <v>100</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>96</v>
@@ -25611,7 +25611,7 @@
         <v>515</v>
       </c>
       <c r="AL96" s="45" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AM96" s="5" t="s">
         <v>526</v>
@@ -25635,7 +25635,7 @@
         <v>100</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>96</v>
@@ -25712,7 +25712,7 @@
         <v>515</v>
       </c>
       <c r="AL97" s="45" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AM97" s="5" t="s">
         <v>526</v>
@@ -25736,7 +25736,7 @@
         <v>100</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>96</v>
@@ -25813,7 +25813,7 @@
         <v>515</v>
       </c>
       <c r="AL98" s="45" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AM98" s="5" t="s">
         <v>526</v>
@@ -25837,7 +25837,7 @@
         <v>100</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>96</v>
@@ -25914,7 +25914,7 @@
         <v>515</v>
       </c>
       <c r="AL99" s="45" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AM99" s="5" t="s">
         <v>526</v>
@@ -25938,7 +25938,7 @@
         <v>100</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>96</v>
@@ -26015,7 +26015,7 @@
         <v>515</v>
       </c>
       <c r="AL100" s="45" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AM100" s="5" t="s">
         <v>526</v>
@@ -26039,7 +26039,7 @@
         <v>100</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>96</v>
@@ -26116,7 +26116,7 @@
         <v>515</v>
       </c>
       <c r="AL101" s="45" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AM101" s="5" t="s">
         <v>526</v>
@@ -26140,7 +26140,7 @@
         <v>100</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>96</v>
@@ -26217,7 +26217,7 @@
         <v>515</v>
       </c>
       <c r="AL102" s="45" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AM102" s="5" t="s">
         <v>526</v>
@@ -26241,7 +26241,7 @@
         <v>138</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>11</v>
@@ -26366,7 +26366,7 @@
         <v>138</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>11</v>
@@ -26491,7 +26491,7 @@
         <v>138</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>11</v>
@@ -26616,7 +26616,7 @@
         <v>138</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>11</v>
@@ -26741,7 +26741,7 @@
         <v>35</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>11</v>
@@ -26850,7 +26850,7 @@
       </c>
       <c r="AN107" s="5"/>
       <c r="AO107" s="5" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
       <c r="AU107" s="5"/>
     </row>
@@ -26865,7 +26865,7 @@
         <v>35</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>11</v>
@@ -26974,7 +26974,7 @@
       </c>
       <c r="AN108" s="5"/>
       <c r="AO108" s="5" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
       <c r="AU108" s="5"/>
     </row>
@@ -26989,7 +26989,7 @@
         <v>35</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>11</v>
@@ -27098,7 +27098,7 @@
       </c>
       <c r="AN109" s="5"/>
       <c r="AO109" s="5" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
       <c r="AU109" s="5"/>
     </row>
@@ -27113,7 +27113,7 @@
         <v>35</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>11</v>
@@ -27222,7 +27222,7 @@
       </c>
       <c r="AN110" s="5"/>
       <c r="AO110" s="5" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
       <c r="AU110" s="5"/>
     </row>
@@ -27237,7 +27237,7 @@
         <v>35</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>11</v>
@@ -27346,7 +27346,7 @@
       </c>
       <c r="AN111" s="5"/>
       <c r="AO111" s="5" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
       <c r="AU111" s="5"/>
     </row>
@@ -27361,7 +27361,7 @@
         <v>35</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>11</v>
@@ -27470,7 +27470,7 @@
       </c>
       <c r="AN112" s="5"/>
       <c r="AO112" s="5" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
       <c r="AU112" s="5"/>
     </row>
@@ -27485,7 +27485,7 @@
         <v>35</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E113" s="5" t="s">
         <v>11</v>
@@ -27594,7 +27594,7 @@
       </c>
       <c r="AN113" s="5"/>
       <c r="AO113" s="5" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
       <c r="AQ113" s="71"/>
       <c r="AR113" s="74"/>
@@ -27611,7 +27611,7 @@
         <v>35</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>11</v>
@@ -27720,7 +27720,7 @@
       </c>
       <c r="AN114" s="5"/>
       <c r="AO114" s="5" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
       <c r="AU114" s="5"/>
     </row>
@@ -27835,7 +27835,7 @@
         <v>500</v>
       </c>
       <c r="AJ115" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK115" s="66" t="s">
         <v>510</v>
@@ -27848,7 +27848,7 @@
       </c>
       <c r="AN115" s="5"/>
       <c r="AO115" s="5" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
       <c r="AP115" s="5" t="s">
         <v>39</v>
@@ -27969,7 +27969,7 @@
         <v>500</v>
       </c>
       <c r="AJ116" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK116" s="66" t="s">
         <v>510</v>
@@ -27982,7 +27982,7 @@
       </c>
       <c r="AN116" s="5"/>
       <c r="AO116" s="5" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
       <c r="AP116" s="5"/>
       <c r="AU116" s="5"/>
@@ -28098,7 +28098,7 @@
         <v>500</v>
       </c>
       <c r="AJ117" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK117" s="66" t="s">
         <v>510</v>
@@ -28111,7 +28111,7 @@
       </c>
       <c r="AN117" s="5"/>
       <c r="AO117" s="5" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
       <c r="AP117" s="5"/>
       <c r="AU117" s="5"/>
@@ -28227,7 +28227,7 @@
         <v>500</v>
       </c>
       <c r="AJ118" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK118" s="66" t="s">
         <v>510</v>
@@ -28240,7 +28240,7 @@
       </c>
       <c r="AN118" s="5"/>
       <c r="AO118" s="5" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
       <c r="AP118" s="5"/>
       <c r="AU118" s="5"/>
@@ -28356,7 +28356,7 @@
         <v>500</v>
       </c>
       <c r="AJ119" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK119" s="66" t="s">
         <v>510</v>
@@ -28369,7 +28369,7 @@
       </c>
       <c r="AN119" s="5"/>
       <c r="AO119" s="5" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
       <c r="AP119" s="5"/>
       <c r="AU119" s="5"/>
@@ -28485,7 +28485,7 @@
         <v>500</v>
       </c>
       <c r="AJ120" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK120" s="66" t="s">
         <v>510</v>
@@ -28498,7 +28498,7 @@
       </c>
       <c r="AN120" s="5"/>
       <c r="AO120" s="5" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
       <c r="AP120" s="5"/>
       <c r="AU120" s="5"/>
@@ -28612,20 +28612,20 @@
         <v>500</v>
       </c>
       <c r="AJ121" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK121" s="66" t="s">
         <v>510</v>
       </c>
       <c r="AL121" s="45" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AM121" s="5" t="s">
         <v>528</v>
       </c>
       <c r="AN121" s="5"/>
       <c r="AO121" s="5" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
       <c r="AU121" s="5"/>
     </row>
@@ -28740,7 +28740,7 @@
         <v>500</v>
       </c>
       <c r="AJ122" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK122" s="66" t="s">
         <v>510</v>
@@ -28753,7 +28753,7 @@
       </c>
       <c r="AN122" s="5"/>
       <c r="AO122" s="5" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
       <c r="AU122" s="5"/>
     </row>
@@ -28868,7 +28868,7 @@
         <v>500</v>
       </c>
       <c r="AJ123" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK123" s="66" t="s">
         <v>510</v>
@@ -28881,7 +28881,7 @@
       </c>
       <c r="AN123" s="5"/>
       <c r="AO123" s="5" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
       <c r="AU123" s="5"/>
     </row>
@@ -28996,7 +28996,7 @@
         <v>500</v>
       </c>
       <c r="AJ124" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK124" s="66" t="s">
         <v>510</v>
@@ -29009,7 +29009,7 @@
       </c>
       <c r="AN124" s="5"/>
       <c r="AO124" s="5" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
       <c r="AU124" s="5"/>
     </row>
@@ -29124,7 +29124,7 @@
         <v>500</v>
       </c>
       <c r="AJ125" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK125" s="66" t="s">
         <v>510</v>
@@ -29137,7 +29137,7 @@
       </c>
       <c r="AN125" s="5"/>
       <c r="AO125" s="5" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
       <c r="AU125" s="5"/>
     </row>
@@ -29252,7 +29252,7 @@
         <v>500</v>
       </c>
       <c r="AJ126" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK126" s="66" t="s">
         <v>510</v>
@@ -29265,7 +29265,7 @@
       </c>
       <c r="AN126" s="5"/>
       <c r="AO126" s="5" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
       <c r="AU126" s="5"/>
     </row>
@@ -29380,7 +29380,7 @@
         <v>500</v>
       </c>
       <c r="AJ127" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK127" s="66" t="s">
         <v>510</v>
@@ -29393,7 +29393,7 @@
       </c>
       <c r="AN127" s="5"/>
       <c r="AO127" s="5" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
       <c r="AU127" s="5"/>
     </row>
@@ -29512,13 +29512,13 @@
       </c>
       <c r="AN128" s="5"/>
       <c r="AO128" s="5" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
       <c r="AP128" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AQ128" s="69" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AU128" s="5"/>
     </row>
@@ -29637,13 +29637,13 @@
       </c>
       <c r="AN129" s="5"/>
       <c r="AO129" s="5" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
       <c r="AP129" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AQ129" s="69" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AU129" s="5"/>
     </row>
@@ -29762,13 +29762,13 @@
       </c>
       <c r="AN130" s="5"/>
       <c r="AO130" s="5" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
       <c r="AP130" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AQ130" s="69" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AU130" s="5"/>
     </row>
@@ -29887,13 +29887,13 @@
       </c>
       <c r="AN131" s="5"/>
       <c r="AO131" s="5" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
       <c r="AP131" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AQ131" s="69" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AU131" s="5"/>
     </row>
@@ -30012,13 +30012,13 @@
       </c>
       <c r="AN132" s="5"/>
       <c r="AO132" s="5" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
       <c r="AP132" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AQ132" s="69" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AU132" s="5"/>
     </row>
@@ -30137,13 +30137,13 @@
       </c>
       <c r="AN133" s="5"/>
       <c r="AO133" s="5" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
       <c r="AP133" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AQ133" s="69" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AU133" s="5"/>
     </row>
@@ -30262,13 +30262,13 @@
       </c>
       <c r="AN134" s="5"/>
       <c r="AO134" s="5" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
       <c r="AP134" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AQ134" s="69" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AU134" s="5"/>
     </row>
@@ -30387,13 +30387,13 @@
       </c>
       <c r="AN135" s="5"/>
       <c r="AO135" s="5" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
       <c r="AP135" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AQ135" s="69" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AU135" s="5"/>
     </row>
@@ -30512,13 +30512,13 @@
       </c>
       <c r="AN136" s="5"/>
       <c r="AO136" s="5" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
       <c r="AP136" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AQ136" s="69" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AU136" s="5"/>
     </row>
@@ -30637,13 +30637,13 @@
       </c>
       <c r="AN137" s="5"/>
       <c r="AO137" s="5" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
       <c r="AP137" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AQ137" s="69" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AU137" s="5"/>
     </row>
@@ -30762,13 +30762,13 @@
       </c>
       <c r="AN138" s="5"/>
       <c r="AO138" s="5" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
       <c r="AP138" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AQ138" s="69" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AU138" s="5"/>
     </row>
@@ -30887,13 +30887,13 @@
       </c>
       <c r="AN139" s="5"/>
       <c r="AO139" s="5" t="s">
-        <v>601</v>
+        <v>666</v>
       </c>
       <c r="AP139" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AQ139" s="69" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AU139" s="5"/>
     </row>
@@ -30908,7 +30908,7 @@
         <v>48</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>106</v>
@@ -31032,7 +31032,7 @@
         <v>48</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>106</v>
@@ -31156,7 +31156,7 @@
         <v>48</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E142" s="5" t="s">
         <v>106</v>
@@ -31280,7 +31280,7 @@
         <v>48</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E143" s="5" t="s">
         <v>11</v>
@@ -31378,7 +31378,7 @@
         <v>501</v>
       </c>
       <c r="AJ143" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK143" s="66" t="s">
         <v>508</v>
@@ -31408,7 +31408,7 @@
         <v>48</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E144" s="45" t="s">
         <v>11</v>
@@ -31506,13 +31506,13 @@
         <v>502</v>
       </c>
       <c r="AJ144" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK144" s="66" t="s">
         <v>508</v>
       </c>
       <c r="AL144" s="45" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AM144" s="45" t="s">
         <v>528</v>
@@ -31536,7 +31536,7 @@
         <v>48</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E145" s="45" t="s">
         <v>11</v>
@@ -31634,13 +31634,13 @@
         <v>502</v>
       </c>
       <c r="AJ145" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK145" s="66" t="s">
         <v>508</v>
       </c>
       <c r="AL145" s="45" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AM145" s="45" t="s">
         <v>528</v>
@@ -31764,7 +31764,7 @@
         <v>503</v>
       </c>
       <c r="AJ146" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK146" s="66" t="s">
         <v>508</v>
@@ -31785,19 +31785,19 @@
         <v>580</v>
       </c>
       <c r="AQ146" s="69" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AS146" s="45" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AT146" s="45" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AU146" s="5" t="s">
         <v>579</v>
       </c>
       <c r="AV146" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="147" spans="1:48" ht="15" x14ac:dyDescent="0.25">
@@ -31911,7 +31911,7 @@
         <v>503</v>
       </c>
       <c r="AJ147" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK147" s="66" t="s">
         <v>508</v>
@@ -31932,19 +31932,19 @@
         <v>580</v>
       </c>
       <c r="AQ147" s="69" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AS147" s="45" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AT147" s="45" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AU147" s="5" t="s">
         <v>579</v>
       </c>
       <c r="AV147" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="148" spans="1:48" ht="15" x14ac:dyDescent="0.25">
@@ -32058,7 +32058,7 @@
         <v>503</v>
       </c>
       <c r="AJ148" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK148" s="66" t="s">
         <v>508</v>
@@ -32079,19 +32079,19 @@
         <v>580</v>
       </c>
       <c r="AQ148" s="69" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AS148" s="45" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AT148" s="45" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AU148" s="5" t="s">
         <v>579</v>
       </c>
       <c r="AV148" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="149" spans="1:48" ht="15" x14ac:dyDescent="0.25">
@@ -32205,7 +32205,7 @@
         <v>503</v>
       </c>
       <c r="AJ149" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK149" s="66" t="s">
         <v>508</v>
@@ -32226,19 +32226,19 @@
         <v>580</v>
       </c>
       <c r="AQ149" s="69" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AS149" s="45" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AT149" s="45" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AU149" s="5" t="s">
         <v>579</v>
       </c>
       <c r="AV149" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="150" spans="1:48" ht="15" x14ac:dyDescent="0.25">
@@ -32352,7 +32352,7 @@
         <v>503</v>
       </c>
       <c r="AJ150" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK150" s="66" t="s">
         <v>508</v>
@@ -32373,19 +32373,19 @@
         <v>580</v>
       </c>
       <c r="AQ150" s="69" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AS150" s="45" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AT150" s="45" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AU150" s="5" t="s">
         <v>579</v>
       </c>
       <c r="AV150" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="151" spans="1:48" ht="15" x14ac:dyDescent="0.25">
@@ -32499,7 +32499,7 @@
         <v>503</v>
       </c>
       <c r="AJ151" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK151" s="66" t="s">
         <v>508</v>
@@ -32520,19 +32520,19 @@
         <v>580</v>
       </c>
       <c r="AQ151" s="69" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AS151" s="45" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AT151" s="45" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AU151" s="5" t="s">
         <v>579</v>
       </c>
       <c r="AV151" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="152" spans="1:48" ht="15" x14ac:dyDescent="0.25">
@@ -32642,13 +32642,13 @@
         <v>503</v>
       </c>
       <c r="AJ152" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK152" s="66" t="s">
         <v>508</v>
       </c>
       <c r="AL152" s="45" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AM152" s="5" t="s">
         <v>527</v>
@@ -32663,19 +32663,19 @@
         <v>580</v>
       </c>
       <c r="AQ152" s="69" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AS152" s="45" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AT152" s="45" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AU152" s="5" t="s">
         <v>579</v>
       </c>
       <c r="AV152" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="153" spans="1:48" ht="15" x14ac:dyDescent="0.25">
@@ -32785,13 +32785,13 @@
         <v>503</v>
       </c>
       <c r="AJ153" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK153" s="66" t="s">
         <v>508</v>
       </c>
       <c r="AL153" s="45" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AM153" s="5" t="s">
         <v>527</v>
@@ -32806,19 +32806,19 @@
         <v>580</v>
       </c>
       <c r="AQ153" s="69" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AS153" s="45" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AT153" s="45" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AU153" s="5" t="s">
         <v>579</v>
       </c>
       <c r="AV153" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="154" spans="1:48" ht="15" x14ac:dyDescent="0.25">
@@ -32932,7 +32932,7 @@
         <v>504</v>
       </c>
       <c r="AJ154" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK154" s="66" t="s">
         <v>508</v>
@@ -32953,19 +32953,19 @@
         <v>580</v>
       </c>
       <c r="AQ154" s="69" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AS154" s="45" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AT154" s="45" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AU154" s="5" t="s">
         <v>579</v>
       </c>
       <c r="AV154" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="155" spans="1:48" ht="15" x14ac:dyDescent="0.25">
@@ -33079,7 +33079,7 @@
         <v>504</v>
       </c>
       <c r="AJ155" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK155" s="66" t="s">
         <v>508</v>
@@ -33100,19 +33100,19 @@
         <v>580</v>
       </c>
       <c r="AQ155" s="69" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AS155" s="45" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AT155" s="45" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AU155" s="5" t="s">
         <v>579</v>
       </c>
       <c r="AV155" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="156" spans="1:48" ht="15" x14ac:dyDescent="0.25">
@@ -33226,7 +33226,7 @@
         <v>504</v>
       </c>
       <c r="AJ156" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK156" s="66" t="s">
         <v>508</v>
@@ -33247,19 +33247,19 @@
         <v>580</v>
       </c>
       <c r="AQ156" s="69" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AS156" s="45" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AT156" s="45" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AU156" s="5" t="s">
         <v>579</v>
       </c>
       <c r="AV156" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="157" spans="1:48" ht="15" x14ac:dyDescent="0.25">
@@ -33373,7 +33373,7 @@
         <v>504</v>
       </c>
       <c r="AJ157" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK157" s="66" t="s">
         <v>508</v>
@@ -33394,19 +33394,19 @@
         <v>580</v>
       </c>
       <c r="AQ157" s="69" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AS157" s="45" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AT157" s="45" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AU157" s="5" t="s">
         <v>579</v>
       </c>
       <c r="AV157" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="158" spans="1:48" ht="15" x14ac:dyDescent="0.25">
@@ -33520,7 +33520,7 @@
         <v>504</v>
       </c>
       <c r="AJ158" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK158" s="66" t="s">
         <v>508</v>
@@ -33541,19 +33541,19 @@
         <v>580</v>
       </c>
       <c r="AQ158" s="69" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AS158" s="45" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AT158" s="45" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AU158" s="5" t="s">
         <v>579</v>
       </c>
       <c r="AV158" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="159" spans="1:48" ht="15" x14ac:dyDescent="0.25">
@@ -33667,7 +33667,7 @@
         <v>504</v>
       </c>
       <c r="AJ159" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK159" s="66" t="s">
         <v>508</v>
@@ -33688,19 +33688,19 @@
         <v>580</v>
       </c>
       <c r="AQ159" s="69" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AS159" s="45" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AT159" s="45" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AU159" s="5" t="s">
         <v>579</v>
       </c>
       <c r="AV159" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="160" spans="1:48" ht="15" x14ac:dyDescent="0.25">
@@ -33810,13 +33810,13 @@
         <v>504</v>
       </c>
       <c r="AJ160" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK160" s="66" t="s">
         <v>508</v>
       </c>
       <c r="AL160" s="45" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AM160" s="5" t="s">
         <v>527</v>
@@ -33831,19 +33831,19 @@
         <v>580</v>
       </c>
       <c r="AQ160" s="69" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AS160" s="45" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AT160" s="45" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AU160" s="5" t="s">
         <v>579</v>
       </c>
       <c r="AV160" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="161" spans="1:48" ht="15" x14ac:dyDescent="0.25">
@@ -33953,13 +33953,13 @@
         <v>504</v>
       </c>
       <c r="AJ161" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK161" s="66" t="s">
         <v>508</v>
       </c>
       <c r="AL161" s="45" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AM161" s="10" t="s">
         <v>527</v>
@@ -33974,19 +33974,19 @@
         <v>580</v>
       </c>
       <c r="AQ161" s="69" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AS161" s="45" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AT161" s="45" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AU161" s="5" t="s">
         <v>579</v>
       </c>
       <c r="AV161" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="162" spans="1:48" ht="15" x14ac:dyDescent="0.25">
@@ -34000,7 +34000,7 @@
         <v>48</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E162" s="5" t="s">
         <v>11</v>
@@ -34098,7 +34098,7 @@
         <v>505</v>
       </c>
       <c r="AJ162" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK162" s="66" t="s">
         <v>508</v>
@@ -34128,7 +34128,7 @@
         <v>48</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>11</v>
@@ -34226,7 +34226,7 @@
         <v>505</v>
       </c>
       <c r="AJ163" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK163" s="66" t="s">
         <v>508</v>
@@ -34256,7 +34256,7 @@
         <v>48</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>11</v>
@@ -34497,7 +34497,7 @@
         <v>581</v>
       </c>
       <c r="AQ165" s="70" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AU165" s="5"/>
     </row>
@@ -34626,16 +34626,16 @@
         <v>592</v>
       </c>
       <c r="AP166" s="45" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AQ166" s="69" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AS166" s="10" t="s">
         <v>582</v>
       </c>
       <c r="AT166" s="45" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AU166" s="10"/>
     </row>
@@ -34650,7 +34650,7 @@
         <v>48</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E167" s="5" t="s">
         <v>11</v>
@@ -34773,7 +34773,7 @@
         <v>48</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E168" s="5" t="s">
         <v>106</v>
@@ -34882,7 +34882,7 @@
         <v>584</v>
       </c>
       <c r="AO168" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AU168" s="5"/>
     </row>
@@ -34897,7 +34897,7 @@
         <v>48</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E169" s="5" t="s">
         <v>106</v>
@@ -35006,7 +35006,7 @@
         <v>584</v>
       </c>
       <c r="AO169" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AU169" s="5"/>
     </row>
@@ -35021,7 +35021,7 @@
         <v>48</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>106</v>
@@ -35130,7 +35130,7 @@
         <v>584</v>
       </c>
       <c r="AO170" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AU170" s="5"/>
     </row>
@@ -35247,7 +35247,7 @@
         <v>506</v>
       </c>
       <c r="AJ171" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK171" s="66" t="s">
         <v>509</v>
@@ -35262,7 +35262,7 @@
         <v>587</v>
       </c>
       <c r="AO171" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AU171" s="5"/>
     </row>
@@ -35379,7 +35379,7 @@
         <v>506</v>
       </c>
       <c r="AJ172" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK172" s="66" t="s">
         <v>509</v>
@@ -35394,7 +35394,7 @@
         <v>587</v>
       </c>
       <c r="AO172" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AU172" s="5"/>
     </row>
@@ -35511,7 +35511,7 @@
         <v>506</v>
       </c>
       <c r="AJ173" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK173" s="66" t="s">
         <v>509</v>
@@ -35526,7 +35526,7 @@
         <v>587</v>
       </c>
       <c r="AO173" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AU173" s="5"/>
     </row>
@@ -35639,13 +35639,13 @@
         <v>506</v>
       </c>
       <c r="AJ174" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK174" s="66" t="s">
         <v>509</v>
       </c>
       <c r="AL174" s="45" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AM174" s="5" t="s">
         <v>528</v>
@@ -35654,7 +35654,7 @@
         <v>587</v>
       </c>
       <c r="AO174" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AU174" s="5"/>
     </row>
@@ -35771,7 +35771,7 @@
         <v>506</v>
       </c>
       <c r="AJ175" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK175" s="66" t="s">
         <v>509</v>
@@ -35786,7 +35786,7 @@
         <v>587</v>
       </c>
       <c r="AO175" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AU175" s="5"/>
     </row>
@@ -35899,13 +35899,13 @@
         <v>506</v>
       </c>
       <c r="AJ176" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK176" s="66" t="s">
         <v>509</v>
       </c>
       <c r="AL176" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AM176" s="5" t="s">
         <v>528</v>
@@ -35914,7 +35914,7 @@
         <v>587</v>
       </c>
       <c r="AO176" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AU176" s="5"/>
     </row>
@@ -35929,7 +35929,7 @@
         <v>60</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E177" s="5" t="s">
         <v>11</v>
@@ -36031,7 +36031,7 @@
         <v>506</v>
       </c>
       <c r="AJ177" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK177" s="66" t="s">
         <v>509</v>
@@ -36046,7 +36046,7 @@
         <v>587</v>
       </c>
       <c r="AO177" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AU177" s="5"/>
     </row>
@@ -36163,7 +36163,7 @@
         <v>506</v>
       </c>
       <c r="AJ178" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK178" s="66" t="s">
         <v>509</v>
@@ -36178,7 +36178,7 @@
         <v>587</v>
       </c>
       <c r="AO178" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AU178" s="5"/>
     </row>
@@ -36295,7 +36295,7 @@
         <v>506</v>
       </c>
       <c r="AJ179" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK179" s="66" t="s">
         <v>509</v>
@@ -36310,7 +36310,7 @@
         <v>587</v>
       </c>
       <c r="AO179" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AU179" s="5"/>
     </row>
@@ -36423,13 +36423,13 @@
         <v>506</v>
       </c>
       <c r="AJ180" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK180" s="66" t="s">
         <v>509</v>
       </c>
       <c r="AL180" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AM180" s="5" t="s">
         <v>528</v>
@@ -36438,7 +36438,7 @@
         <v>587</v>
       </c>
       <c r="AO180" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AU180" s="5"/>
     </row>
@@ -36453,7 +36453,7 @@
         <v>60</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E181" s="5" t="s">
         <v>106</v>
@@ -36555,7 +36555,7 @@
         <v>506</v>
       </c>
       <c r="AJ181" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK181" s="66" t="s">
         <v>509</v>
@@ -36570,7 +36570,7 @@
         <v>587</v>
       </c>
       <c r="AO181" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AU181" s="5"/>
     </row>
@@ -36585,7 +36585,7 @@
         <v>60</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E182" s="5" t="s">
         <v>106</v>
@@ -36687,7 +36687,7 @@
         <v>506</v>
       </c>
       <c r="AJ182" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK182" s="66" t="s">
         <v>509</v>
@@ -36702,7 +36702,7 @@
         <v>587</v>
       </c>
       <c r="AO182" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AU182" s="5"/>
     </row>
@@ -36717,7 +36717,7 @@
         <v>60</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E183" s="5" t="s">
         <v>106</v>
@@ -36819,7 +36819,7 @@
         <v>506</v>
       </c>
       <c r="AJ183" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK183" s="66" t="s">
         <v>509</v>
@@ -36834,7 +36834,7 @@
         <v>587</v>
       </c>
       <c r="AO183" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AU183" s="5"/>
     </row>
@@ -36949,7 +36949,7 @@
         <v>507</v>
       </c>
       <c r="AJ184" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK184" s="66" t="s">
         <v>509</v>
@@ -36964,16 +36964,16 @@
         <v>587</v>
       </c>
       <c r="AO184" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="AP184" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="AQ184" s="69" t="s">
         <v>605</v>
       </c>
-      <c r="AP184" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="AQ184" s="69" t="s">
-        <v>606</v>
-      </c>
       <c r="AR184" s="73" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AU184" s="5"/>
     </row>
@@ -37088,7 +37088,7 @@
         <v>507</v>
       </c>
       <c r="AJ185" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK185" s="66" t="s">
         <v>509</v>
@@ -37103,16 +37103,16 @@
         <v>587</v>
       </c>
       <c r="AO185" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="AP185" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="AQ185" s="69" t="s">
         <v>605</v>
       </c>
-      <c r="AP185" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="AQ185" s="69" t="s">
-        <v>606</v>
-      </c>
       <c r="AR185" s="73" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AU185" s="5"/>
     </row>
@@ -37227,7 +37227,7 @@
         <v>507</v>
       </c>
       <c r="AJ186" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK186" s="66" t="s">
         <v>509</v>
@@ -37242,16 +37242,16 @@
         <v>587</v>
       </c>
       <c r="AO186" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="AP186" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="AQ186" s="69" t="s">
         <v>605</v>
       </c>
-      <c r="AP186" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="AQ186" s="69" t="s">
-        <v>606</v>
-      </c>
       <c r="AR186" s="73" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AU186" s="5"/>
     </row>
@@ -37366,7 +37366,7 @@
         <v>507</v>
       </c>
       <c r="AJ187" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK187" s="66" t="s">
         <v>509</v>
@@ -37381,16 +37381,16 @@
         <v>587</v>
       </c>
       <c r="AO187" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="AP187" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="AQ187" s="69" t="s">
         <v>605</v>
       </c>
-      <c r="AP187" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="AQ187" s="69" t="s">
-        <v>606</v>
-      </c>
       <c r="AR187" s="73" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AU187" s="5"/>
     </row>
@@ -37505,7 +37505,7 @@
         <v>507</v>
       </c>
       <c r="AJ188" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK188" s="66" t="s">
         <v>509</v>
@@ -37520,16 +37520,16 @@
         <v>587</v>
       </c>
       <c r="AO188" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="AP188" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="AQ188" s="69" t="s">
         <v>605</v>
       </c>
-      <c r="AP188" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="AQ188" s="69" t="s">
-        <v>606</v>
-      </c>
       <c r="AR188" s="73" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AU188" s="5"/>
     </row>
@@ -37644,7 +37644,7 @@
         <v>507</v>
       </c>
       <c r="AJ189" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK189" s="66" t="s">
         <v>509</v>
@@ -37659,16 +37659,16 @@
         <v>587</v>
       </c>
       <c r="AO189" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="AP189" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="AQ189" s="69" t="s">
         <v>605</v>
       </c>
-      <c r="AP189" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="AQ189" s="69" t="s">
-        <v>606</v>
-      </c>
       <c r="AR189" s="73" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AU189" s="5"/>
     </row>
@@ -37783,7 +37783,7 @@
         <v>507</v>
       </c>
       <c r="AJ190" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK190" s="66" t="s">
         <v>509</v>
@@ -37798,16 +37798,16 @@
         <v>587</v>
       </c>
       <c r="AO190" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="AP190" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="AQ190" s="69" t="s">
         <v>605</v>
       </c>
-      <c r="AP190" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="AQ190" s="69" t="s">
-        <v>606</v>
-      </c>
       <c r="AR190" s="73" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AU190" s="5"/>
     </row>
@@ -37922,7 +37922,7 @@
         <v>507</v>
       </c>
       <c r="AJ191" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK191" s="66" t="s">
         <v>509</v>
@@ -37937,16 +37937,16 @@
         <v>587</v>
       </c>
       <c r="AO191" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="AP191" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="AQ191" s="69" t="s">
         <v>605</v>
       </c>
-      <c r="AP191" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="AQ191" s="69" t="s">
-        <v>606</v>
-      </c>
       <c r="AR191" s="73" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AU191" s="5"/>
     </row>
@@ -38061,7 +38061,7 @@
         <v>507</v>
       </c>
       <c r="AJ192" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK192" s="66" t="s">
         <v>509</v>
@@ -38076,16 +38076,16 @@
         <v>587</v>
       </c>
       <c r="AO192" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="AP192" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="AQ192" s="69" t="s">
         <v>605</v>
       </c>
-      <c r="AP192" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="AQ192" s="69" t="s">
-        <v>606</v>
-      </c>
       <c r="AR192" s="73" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AU192" s="5"/>
     </row>
@@ -38200,7 +38200,7 @@
         <v>507</v>
       </c>
       <c r="AJ193" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK193" s="66" t="s">
         <v>509</v>
@@ -38215,16 +38215,16 @@
         <v>587</v>
       </c>
       <c r="AO193" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="AP193" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="AQ193" s="69" t="s">
         <v>605</v>
       </c>
-      <c r="AP193" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="AQ193" s="69" t="s">
-        <v>606</v>
-      </c>
       <c r="AR193" s="73" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AU193" s="5"/>
     </row>
